--- a/logs.xlsx
+++ b/logs.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="20190103095444" sheetId="1" r:id="rId1"/>
+    <sheet name="20190103132841" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="197">
   <si>
     <t>ID</t>
   </si>
@@ -64,7 +64,7 @@
     <t>192.168.1.7</t>
   </si>
   <si>
-    <t>52.7.105.211</t>
+    <t>34.198.158.139</t>
   </si>
   <si>
     <t>TCP, Transmission Control Protocol</t>
@@ -82,19 +82,28 @@
 			This is the last fragment</t>
   </si>
   <si>
-    <t>b'E\x00\x00(8~@\x00\x80\x06\x00\x00\xc0\xa8\x01\x074\x07i\xd3\xe4\xe3\x00P\xcd\x11r\xafpM\xd6pP\x10\x00\xff_\xa4\x00\x00'</t>
-  </si>
-  <si>
-    <t>x80\x06\x00\x00\xc0\xa8\x01\x074\x07i\xd3\xe4\xe3\x00P\xcd\x11r\xafpM\xd6pP\x10\x00\xff_\xa4\x00\x00'</t>
-  </si>
-  <si>
-    <t>2019-01-03-09:54:41</t>
-  </si>
-  <si>
-    <t>192.168.1.255</t>
-  </si>
-  <si>
-    <t>UDP, User Datagram Protocol</t>
+    <t>b'E\x00\x00Mvi@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07"\xc6\x9e\x8b\xf9T\x01\xbb\x98\x12xH\xea\xa8\x9bPP\x18\x00\xfe\x83@\x00\x00\x17\x03\x03\x00 \x00\x00\x00\x00\x00\x00\x11\xcf\xe1\xe74\x00I(\xbf\xba\x8f\xf7\x96\x16\xbd\xff{P\xb7e\xf4!`\x84\x85\x18'</t>
+  </si>
+  <si>
+    <t>x80\x06\x00\x00\xc0\xa8\x01\x07"\xc6\x9e\x8b\xf9T\x01\xbb\x98\x12xH\xea\xa8\x9bPP\x18\x00\xfe\x83@\x00\x00\x17\x03\x03\x00 \x00\x00\x00\x00\x00\x00\x11\xcf\xe1\xe74\x00I(\xbf\xba\x8f\xf7\x96\x16\xbd\xff{P\xb7e\xf4!`\x84\x85\x18'</t>
+  </si>
+  <si>
+    <t>2019-01-03-13:28:32</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00J\xf1\x95@\x00\xeb\x06\x1b\x17"\xc6\x9e\x8b\xc0\xa8\x01\x07\x01\xbb\xf9T\xea\xa8\x9bP\x98\x12xmP\x18\x03\x03M\x1d\x00\x00\x17\x03\x03\x00\x1da\xcd@\x9eb\xbc\xddH\xfd\xa2[\x9b\x99\xfb5\x1d\x87\xf1F\r\x19s\n\xc5\xcaAq\xd2\xc4'</t>
+  </si>
+  <si>
+    <t>@\x00\xeb\x06\x1b\x17"\xc6\x9e\x8b\xc0\xa8\x01\x07\x01\xbb\xf9T\xea\xa8\x9bP\x98\x12xmP\x18\x03\x03M\x1d\x00\x00\x17\x03\x03\x00\x1da\xcd@\x9eb\xbc\xddH\xfd\xa2[\x9b\x99\xfb5\x1d\x87\xf1F\r\x19s\n\xc5\xcaAq\xd2\xc4'</t>
+  </si>
+  <si>
+    <t>216.58.217.46</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00)HC@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\xd8:\xd9.\xe1o\x01\xbbt\xc0\xb4@z\xde\xb9&gt;P\x10\x01\x01s4\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>x80\x06\x00\x00\xc0\xa8\x01\x07\xd8:\xd9.\xe1o\x01\xbbt\xc0\xb4@z\xde\xb9&gt;P\x10\x01\x01s4\x00\x00\x00'</t>
   </si>
   <si>
     <t>Reserved bit
@@ -102,151 +111,508 @@
 			This is the last fragment</t>
   </si>
   <si>
-    <t>b"E\x00\x01#:7\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xbf\xa5{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00G\xf8\xd5\xe8"</t>
-  </si>
-  <si>
-    <t>00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xbf\xa5{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00G\xf8\xd5\xe8"</t>
-  </si>
-  <si>
-    <t>54.213.26.239</t>
-  </si>
-  <si>
-    <t>b'E\x00\x00h\r&gt;@\x00\x80\x06\x00\x00\xc0\xa8\x01\x076\xd5\x1a\xef\xf9G\x01\xbb0!]\xadM\x9e\xe0\xbaP\x18\x01\x00\x13\xce\x00\x00\x17\x03\x03\x00;\x00\x00\x00\x00\x00\x00\r\xfd\xbe\xf0]\xd2\xba\xa2\xb3`s*\xfa\xac\xdfM\xf8\xe1;\x8b\xdfZW\x84\x1c\x92\xbe\xe1a\xa3_\xe1H\x99\xf6*"y\xac\xfa7W`\xdb\xab7:\x04`6\x12\x04\x94'</t>
-  </si>
-  <si>
-    <t>\x80\x06\x00\x00\xc0\xa8\x01\x076\xd5\x1a\xef\xf9G\x01\xbb0!]\xadM\x9e\xe0\xbaP\x18\x01\x00\x13\xce\x00\x00\x17\x03\x03\x00;\x00\x00\x00\x00\x00\x00\r\xfd\xbe\xf0]\xd2\xba\xa2\xb3`s*\xfa\xac\xdfM\xf8\xe1;\x8b\xdfZW\x84\x1c\x92\xbe\xe1a\xa3_\xe1H\x99\xf6*"y\xac\xfa7W`\xdb\xab7:\x04`6\x12\x04\x94'</t>
-  </si>
-  <si>
-    <t>2019-01-03-09:54:42</t>
-  </si>
-  <si>
-    <t>b'E\x00\x00(\x12\x97@\x00)\x06+\xc66\xd5\x1a\xef\xc0\xa8\x01\x07\x01\xbb\xf9GM\x9e\xe0\xba0!]\xedP\x10\x00\r\xe4\xe9\x00\x00'</t>
-  </si>
-  <si>
-    <t>@\x00)\x06+\xc66\xd5\x1a\xef\xc0\xa8\x01\x07\x01\xbb\xf9GM\x9e\xe0\xba0!]\xedP\x10\x00\r\xe4\xe9\x00\x00'</t>
-  </si>
-  <si>
-    <t>b'E\x00\x00h\x12\x98@\x00)\x06+\x856\xd5\x1a\xef\xc0\xa8\x01\x07\x01\xbb\xf9GM\x9e\xe0\xba0!]\xedP\x18\x00\r\xa4F\x00\x00\x17\x03\x03\x00;\x98)\x04\xd3`\xd3\x01m\xe6\xb4\xf7Z\xa5\xb0q\xf3Cg\x90\x06{\xb55?\xb5#1O\xc2M\xf1\x05\x8c\xdcY\x1b@\xa9\x88u\x81{\x18\x95\xb1\xe2Ww\xb15\x83*y\xa5\n\xb1Y\x98\xe0'</t>
-  </si>
-  <si>
-    <t>@\x00)\x06+\x856\xd5\x1a\xef\xc0\xa8\x01\x07\x01\xbb\xf9GM\x9e\xe0\xba0!]\xedP\x18\x00\r\xa4F\x00\x00\x17\x03\x03\x00;\x98)\x04\xd3`\xd3\x01m\xe6\xb4\xf7Z\xa5\xb0q\xf3Cg\x90\x06{\xb55?\xb5#1O\xc2M\xf1\x05\x8c\xdcY\x1b@\xa9\x88u\x81{\x18\x95\xb1\xe2Ww\xb15\x83*y\xa5\n\xb1Y\x98\xe0'</t>
+    <t>b'E\x00\x004\xad\xe9\x00\x00z\x06\x1f\xc2\xd8:\xd9.\xc0\xa8\x01\x07\x01\xbb\xe1oz\xde\xb9&gt;t\xc0\xb4A\x80\x10\x01\xbdr\x9a\x00\x00\x01\x01\x05\nt\xc0\xb4@t\xc0\xb4A'</t>
+  </si>
+  <si>
+    <t>\x00\x00z\x06\x1f\xc2\xd8:\xd9.\xc0\xa8\x01\x07\x01\xbb\xe1oz\xde\xb9&gt;t\xc0\xb4A\x80\x10\x01\xbdr\x9a\x00\x00\x01\x01\x05\nt\xc0\xb4@t\xc0\xb4A'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00(vj@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07"\xc6\x9e\x8b\xf9T\x01\xbb\x98\x12xm\xea\xa8\x9brP\x10\x00\xfe\x83\x1b\x00\x00'</t>
+  </si>
+  <si>
+    <t>x80\x06\x00\x00\xc0\xa8\x01\x07"\xc6\x9e\x8b\xf9T\x01\xbb\x98\x12xm\xea\xa8\x9brP\x10\x00\xfe\x83\x1b\x00\x00'</t>
+  </si>
+  <si>
+    <t>192.168.1.255</t>
+  </si>
+  <si>
+    <t>UDP, User Datagram Protocol</t>
+  </si>
+  <si>
+    <t>b"E\x00\x01#\x1e\t\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xdd\xd7{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\t;y("</t>
+  </si>
+  <si>
+    <t>00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xdd\xd7{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\t;y("</t>
+  </si>
+  <si>
+    <t>54.149.37.85</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00hh\xc1@\x00\x80\x06\x00\x00\xc0\xa8\x01\x076\x95%U\xd2h\x01\xbb\xe3\x96\x99\xe0v3$\xbaP\x18\x01\x00\x1d\xf4\x00\x00\x17\x03\x03\x00;\x00\x00\x00\x00\x00\x00\x01\x81G\x8a\xc1\x95\x83\xf6\x017\xcb\xba\xba\x03&lt;\xf8+\x9evw\x83\x8ev\xaaF\x95\xdfEt\x9c\xb9\xe9\xf8\xce+ze\x9a\x0br\x13\xff\x0fl \xac\xaf\x0f\xd9\x85\xa3\x83\x8f'</t>
+  </si>
+  <si>
+    <t>00\x80\x06\x00\x00\xc0\xa8\x01\x076\x95%U\xd2h\x01\xbb\xe3\x96\x99\xe0v3$\xbaP\x18\x01\x00\x1d\xf4\x00\x00\x17\x03\x03\x00;\x00\x00\x00\x00\x00\x00\x01\x81G\x8a\xc1\x95\x83\xf6\x017\xcb\xba\xba\x03&lt;\xf8+\x9evw\x83\x8ev\xaaF\x95\xdfEt\x9c\xb9\xe9\xf8\xce+ze\x9a\x0br\x13\xff\x0fl \xac\xaf\x0f\xd9\x85\xa3\x83\x8f'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00h\xa7\x90@\x00(\x06\x8df6\x95%U\xc0\xa8\x01\x07\x01\xbb\xd2hv3$\xba\xe3\x96\x9a P\x18\x00\n\x9b]\x00\x00\x17\x03\x03\x00;\xcee\x81\xef\r-\x80\x11\r.\xb8I\x92\xe1[\xe4\xcc0\xaa\x80U\xaa\xb6\xd4\xbd\x97{?\\\xb3\xe7z\x17\x9e\xe5\x8d\x12\xfcai\x9a=SD\xeb9\x02]\xa9y\xb3Z\xb2\xb3_\x13\xf7f{'</t>
+  </si>
+  <si>
+    <t>@\x00(\x06\x8df6\x95%U\xc0\xa8\x01\x07\x01\xbb\xd2hv3$\xba\xe3\x96\x9a P\x18\x00\n\x9b]\x00\x00\x17\x03\x03\x00;\xcee\x81\xef\r-\x80\x11\r.\xb8I\x92\xe1[\xe4\xcc0\xaa\x80U\xaa\xb6\xd4\xbd\x97{?\\\xb3\xe7z\x17\x9e\xe5\x8d\x12\xfcai\x9a=SD\xeb9\x02]\xa9y\xb3Z\xb2\xb3_\x13\xf7f{'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00(h\xc2@\x00\x80\x06\x00\x00\xc0\xa8\x01\x076\x95%U\xd2h\x01\xbb\xe3\x96\x9a v3$\xfaP\x10\x01\x00\x1d\xb4\x00\x00'</t>
+  </si>
+  <si>
+    <t>00\x80\x06\x00\x00\xc0\xa8\x01\x076\x95%U\xd2h\x01\xbb\xe3\x96\x9a v3$\xfaP\x10\x01\x00\x1d\xb4\x00\x00'</t>
+  </si>
+  <si>
+    <t>74.125.195.188</t>
+  </si>
+  <si>
+    <t>b"E\x00\x00)\x13'@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07J}\xc3\xbc\xf9\xc9\x01\xbb\xfb3\xda\xd9\x9b$\x18!P\x10\x00\xfe\xd0\x04\x00\x00\x00"</t>
+  </si>
+  <si>
+    <t>00\x80\x06\x00\x00\xc0\xa8\x01\x07J}\xc3\xbc\xf9\xc9\x01\xbb\xfb3\xda\xd9\x9b$\x18!P\x10\x00\xfe\xd0\x04\x00\x00\x00"</t>
+  </si>
+  <si>
+    <t>2019-01-03-13:28:33</t>
+  </si>
+  <si>
+    <t>b'E\x00\x004g\x90\x00\x00l\x06\x17KJ}\xc3\xbc\xc0\xa8\x01\x07\x01\xbb\xf9\xc9\x9b$\x18!\xfb3\xda\xda\x80\x10\x00\xf6w\xe8\x00\x00\x01\x01\x05\n\xfb3\xda\xd9\xfb3\xda\xda'</t>
+  </si>
+  <si>
+    <t>0\x00l\x06\x17KJ}\xc3\xbc\xc0\xa8\x01\x07\x01\xbb\xf9\xc9\x9b$\x18!\xfb3\xda\xda\x80\x10\x00\xf6w\xe8\x00\x00\x01\x01\x05\n\xfb3\xda\xd9\xfb3\xda\xda'</t>
+  </si>
+  <si>
+    <t>b"E\x00\x01#\x1e\n\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xde\xd7{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xed\xcb\xbdb"</t>
+  </si>
+  <si>
+    <t>00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xde\xd7{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xed\xcb\xbdb"</t>
+  </si>
+  <si>
+    <t>b"E\x00\x01#\x1e\x0b\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xdf\xd7{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xb1\x9b\x01["</t>
+  </si>
+  <si>
+    <t>\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xdf\xd7{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xb1\x9b\x01["</t>
+  </si>
+  <si>
+    <t>2019-01-03-13:28:34</t>
+  </si>
+  <si>
+    <t>34.236.156.213</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00\xb23x@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07"\xec\x9c\xd5\xf9S\x14fnw;a\x82\xc9-hP\x18\x00\xfe\x82\x15\x00\x00\x17\x03\x01\x00 \xe1\x10c\xae\xa1\xb4\x13\xc1\x11\xa2\x94\x04\xe9\x93=F\x1f*|\xfb\x13\x8a&amp;-\xb0\x83&gt;\x19\x14\x1cu\xb6\x17\x03\x01\x00`\xb9\xeb\xb3U\x9d\xb0F\xbf\xd9\x83S\xd10F{\x05R1\xb3\x0f\x83]\xd7\x1a\xb7"\xb6\xaa}\xd3z\xbf\x06"$\xc7\xd0\xe8\xad*\xfb)Y\x03\x0cN\xb7\xbc_4#B\xfd\xb3\x92\xc5J\xc29\x06\xc9p\xbe\xe4Ln\x8d\xd4\x0f\x1e\x07\x18o\xf8\xe3\xa3a\x93\x82B\x15\xbe\xc7=%c\x11\x8c\xdb\xa8\x00~\xa8e\xf3Y'</t>
+  </si>
+  <si>
+    <t>00\x80\x06\x00\x00\xc0\xa8\x01\x07"\xec\x9c\xd5\xf9S\x14fnw;a\x82\xc9-hP\x18\x00\xfe\x82\x15\x00\x00\x17\x03\x01\x00 \xe1\x10c\xae\xa1\xb4\x13\xc1\x11\xa2\x94\x04\xe9\x93=F\x1f*|\xfb\x13\x8a&amp;-\xb0\x83&gt;\x19\x14\x1cu\xb6\x17\x03\x01\x00`\xb9\xeb\xb3U\x9d\xb0F\xbf\xd9\x83S\xd10F{\x05R1\xb3\x0f\x83]\xd7\x1a\xb7"\xb6\xaa}\xd3z\xbf\x06"$\xc7\xd0\xe8\xad*\xfb)Y\x03\x0cN\xb7\xbc_4#B\xfd\xb3\x92\xc5J\xc29\x06\xc9p\xbe\xe4Ln\x8d\xd4\x0f\x1e\x07\x18o\xf8\xe3\xa3a\x93\x82B\x15\xbe\xc7=%c\x11\x8c\xdb\xa8\x00~\xa8e\xf3Y'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00\xd2\xe2[@\x00,\x06\xeaY"\xec\x9c\xd5\xc0\xa8\x01\x07\x14f\xf9S\x82\xc9-hnw;\xebP\x18\x06N^\x1a\x00\x00\x17\x03\x01\x00 f\xf0X^k\xb0\x9b\xb6\xea6]\x14\xef\xf3\x8f\xa3\x01E\x03|\xaa|\x8a~\xc7\x9f\x0e#^\xf0\xf2Q\x17\x03\x01\x00\x80\x8b5\x0e\xbf\x82\x07TT\x1dt\xe0n\xf6\xd4\xd8\x86Ey\x1b\xfflQ\x84\x86\x04btu\x17\xa6&lt;\x91y\xfd\x95\x9a\xa0\x93=\x0c\xef\xea\xeb*\x83:D\x1a\x18hg\x10\x8d0j\xc0/\xb4#S\xe2\xda\xc9h\xf2$\x7f"O\xdc\ny3\xa6\xfb\xa4\xd2\xbc\xe4\xff\xa9\xab\x8akt\x19\x8e\\cu:\xf0\xdf\x9b\x9f\x9e\x87\xdf\xc4\xe4\xbf&gt;K\x94|\x0f}G\xd3\xee\xa8:\x15\rL\x873\xcan\xd9"d\xe7\x8b\xb4\xbd\xd1\\'</t>
+  </si>
+  <si>
+    <t>@\x00,\x06\xeaY"\xec\x9c\xd5\xc0\xa8\x01\x07\x14f\xf9S\x82\xc9-hnw;\xebP\x18\x06N^\x1a\x00\x00\x17\x03\x01\x00 f\xf0X^k\xb0\x9b\xb6\xea6]\x14\xef\xf3\x8f\xa3\x01E\x03|\xaa|\x8a~\xc7\x9f\x0e#^\xf0\xf2Q\x17\x03\x01\x00\x80\x8b5\x0e\xbf\x82\x07TT\x1dt\xe0n\xf6\xd4\xd8\x86Ey\x1b\xfflQ\x84\x86\x04btu\x17\xa6&lt;\x91y\xfd\x95\x9a\xa0\x93=\x0c\xef\xea\xeb*\x83:D\x1a\x18hg\x10\x8d0j\xc0/\xb4#S\xe2\xda\xc9h\xf2$\x7f"O\xdc\ny3\xa6\xfb\xa4\xd2\xbc\xe4\xff\xa9\xab\x8akt\x19\x8e\\cu:\xf0\xdf\x9b\x9f\x9e\x87\xdf\xc4\xe4\xbf&gt;K\x94|\x0f}G\xd3\xee\xa8:\x15\rL\x873\xcan\xd9"d\xe7\x8b\xb4\xbd\xd1\\'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00(3y@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07"\xec\x9c\xd5\xf9S\x14fnw;\xeb\x82\xc9.\x12P\x10\x00\xfd\x81\x8b\x00\x00'</t>
+  </si>
+  <si>
+    <t>x80\x06\x00\x00\xc0\xa8\x01\x07"\xec\x9c\xd5\xf9S\x14fnw;\xeb\x82\xc9.\x12P\x10\x00\xfd\x81\x8b\x00\x00'</t>
+  </si>
+  <si>
+    <t>b"E\x00\x01#\x1e\x0c\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xe0\xd7{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00B\xb5\xce\x96"</t>
+  </si>
+  <si>
+    <t>\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xe0\xd7{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00B\xb5\xce\x96"</t>
+  </si>
+  <si>
+    <t>2019-01-03-13:28:35</t>
+  </si>
+  <si>
+    <t>162.247.242.21</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00)\x0b\x01@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\xa2\xf7\xf2\x15\xedj\x01\xbb`\x17\x9a%\xd7\xd2R\xecP\x10\xf9\x19V\xd8\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\xa2\xf7\xf2\x15\xedj\x01\xbb`\x17\x9a%\xd7\xd2R\xecP\x10\xf9\x19V\xd8\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>b"E\x00\x00(\xff\x17@\x00\xf7\x06-\xfb\xa2\xf7\xf2\x15\xc0\xa8\x01\x07\x01\xbb\xedj\xd7\xd2R\xec`\x17\x9a&amp;P\x10\x1d\x88'm\x00\x00"</t>
+  </si>
+  <si>
+    <t>@\x00\xf7\x06-\xfb\xa2\xf7\xf2\x15\xc0\xa8\x01\x07\x01\xbb\xedj\xd7\xd2R\xec`\x17\x9a&amp;P\x10\x1d\x88'm\x00\x00"</t>
+  </si>
+  <si>
+    <t>172.217.3.196</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00)u[@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\xac\xd9\x03\xc4\xeb7\x01\xbb\xb1\x10\xf0\xb0\xb1RuGP\x10\x01\x01rh\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>x80\x06\x00\x00\xc0\xa8\x01\x07\xac\xd9\x03\xc4\xeb7\x01\xbb\xb1\x10\xf0\xb0\xb1RuGP\x10\x01\x01rh\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>2019-01-03-13:28:36</t>
+  </si>
+  <si>
+    <t>b'E\x00\x004B\xda\x00\x00z\x06\x8b\x9d\xac\xd9\x03\xc4\xc0\xa8\x01\x07\x01\xbb\xeb7\xb1RuG\xb1\x10\xf0\xb1\x80\x10\x04\x1a\n\x83\x00\x00\x01\x01\x05\n\xb1\x10\xf0\xb0\xb1\x10\xf0\xb1'</t>
+  </si>
+  <si>
+    <t>0\x00z\x06\x8b\x9d\xac\xd9\x03\xc4\xc0\xa8\x01\x07\x01\xbb\xeb7\xb1RuG\xb1\x10\xf0\xb1\x80\x10\x04\x1a\n\x83\x00\x00\x01\x01\x05\n\xb1\x10\xf0\xb0\xb1\x10\xf0\xb1'</t>
+  </si>
+  <si>
+    <t>74.125.20.154</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00)j\xc3@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07J}\x14\x9a\xed\xe4\x01\xbb\x8az\x13y\xaafb\xb3P\x10\x01\x00 \xe2\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>00\x80\x06\x00\x00\xc0\xa8\x01\x07J}\x14\x9a\xed\xe4\x01\xbb\x8az\x13y\xaafb\xb3P\x10\x01\x00 \xe2\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x004\x9c\x86\x00\x00l\x06\x91wJ}\x14\x9a\xc0\xa8\x01\x07\x01\xbb\xed\xe4\xaafb\xb3\x8az\x13z\x80\x10\x00\xf6\x81j\x00\x00\x01\x01\x05\n\x8az\x13y\x8az\x13z'</t>
+  </si>
+  <si>
+    <t>\x00\x00l\x06\x91wJ}\x14\x9a\xc0\xa8\x01\x07\x01\xbb\xed\xe4\xaafb\xb3\x8az\x13z\x80\x10\x00\xf6\x81j\x00\x00\x01\x01\x05\n\x8az\x13y\x8az\x13z'</t>
+  </si>
+  <si>
+    <t>151.101.52.134</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00)\x0e\x02@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\x97e4\x86\xed\xe3\x01\xbb\xe8\x86I\xcfw\x8c@\x16P\x10\x01\x00\x8d\xb6\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\x97e4\x86\xed\xe3\x01\xbb\xe8\x86I\xcfw\x8c@\x16P\x10\x01\x00\x8d\xb6\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x004\x80`@\x005\x067\xc9\x97e4\x86\xc0\xa8\x01\x07\x01\xbb\xed\xe3w\x8c@\x16\xe8\x86I\xd0\x80\x10\x00&gt;\xad\x9e\x00\x00\x01\x01\x05\n\xe8\x86I\xcf\xe8\x86I\xd0'</t>
+  </si>
+  <si>
+    <t>005\x067\xc9\x97e4\x86\xc0\xa8\x01\x07\x01\xbb\xed\xe3w\x8c@\x16\xe8\x86I\xd0\x80\x10\x00&gt;\xad\x9e\x00\x00\x01\x01\x05\n\xe8\x86I\xcf\xe8\x86I\xd0'</t>
   </si>
   <si>
     <t>192.168.1.6</t>
   </si>
   <si>
-    <t>b'E\x00\x00\x9d\xd7\xf3@\x00@\x06\xdf\t\xc0\xa8\x01\x06\xc0\xa8\x01\x07\x1fI\xcc*z\xbe\x9b\xd0\x13\x11P\xcfP\x18\x01\xf10\xe8\x00\x00\x17\x03\x03\x00p\x00\x00\x00\x00\x00\x00\x18\xca\x8d\x17W\x10AL\xa7U\x98\xe1\xd3\xd1r\x1f\x15\xf6\xca\xf3\xcd\xbby\xfa`\xa5s\xff\x1f\xc4\xd1\x8f$\xdf\xb6(\x13\x84BB\x11\x7f|\x82Q\x07\xf3\xb2\xb9:\x84"\x02\xf3\xde\xeeUiW\xfa\xb3\xc5\xf1te\xea\x10I\xd8DA\x89Dk\xab\xd7\xaf\x12\xc9\x0cg\xb0V\x9a{N\xd5-\x93\xf0\x95m\xc2\xfeo_\x81\xbf\xf9\x81BS\x08\x89\xe8\x9c'</t>
-  </si>
-  <si>
-    <t>xf3@\x00@\x06\xdf\t\xc0\xa8\x01\x06\xc0\xa8\x01\x07\x1fI\xcc*z\xbe\x9b\xd0\x13\x11P\xcfP\x18\x01\xf10\xe8\x00\x00\x17\x03\x03\x00p\x00\x00\x00\x00\x00\x00\x18\xca\x8d\x17W\x10AL\xa7U\x98\xe1\xd3\xd1r\x1f\x15\xf6\xca\xf3\xcd\xbby\xfa`\xa5s\xff\x1f\xc4\xd1\x8f$\xdf\xb6(\x13\x84BB\x11\x7f|\x82Q\x07\xf3\xb2\xb9:\x84"\x02\xf3\xde\xeeUiW\xfa\xb3\xc5\xf1te\xea\x10I\xd8DA\x89Dk\xab\xd7\xaf\x12\xc9\x0cg\xb0V\x9a{N\xd5-\x93\xf0\x95m\xc2\xfeo_\x81\xbf\xf9\x81BS\x08\x89\xe8\x9c'</t>
-  </si>
-  <si>
-    <t>b'E\x00\x00(\r?@\x00\x80\x06\x00\x00\xc0\xa8\x01\x076\xd5\x1a\xef\xf9G\x01\xbb0!]\xedM\x9e\xe0\xfaP\x10\x00\xff\x13\x8e\x00\x00'</t>
-  </si>
-  <si>
-    <t>\x80\x06\x00\x00\xc0\xa8\x01\x076\xd5\x1a\xef\xf9G\x01\xbb0!]\xedM\x9e\xe0\xfaP\x10\x00\xff\x13\x8e\x00\x00'</t>
-  </si>
-  <si>
-    <t>b'E\x00\x00(uB@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\x06\xcc*\x1fI\x13\x11P\xcfz\xbe\x9cEP\x10\x00\xfd\x83x\x00\x00'</t>
-  </si>
-  <si>
-    <t>x80\x06\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\x06\xcc*\x1fI\x13\x11P\xcfz\xbe\x9cEP\x10\x00\xfd\x83x\x00\x00'</t>
-  </si>
-  <si>
-    <t>b"E\x00\x01#::\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xc0\xa5{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xbc\xf3\x86\x91"</t>
-  </si>
-  <si>
-    <t>00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xc0\xa5{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xbc\xf3\x86\x91"</t>
-  </si>
-  <si>
-    <t>34.198.158.139</t>
-  </si>
-  <si>
-    <t>b'E\x00\x01\x08\xa1h@\x00\xeb\x06j\x86"\xc6\x9e\x8b\xc0\xa8\x01\x07\x01\xbb\xf9C\xa7X~Z6Zm\xcbP\x18\x03\x03\x9a1\x00\x00\x17\x03\x03\x00\xdb\xd5n\x05\x8f\xf3b\x1e\xe6@\xc1\xff\x96e1?\xd2&gt;}I\xe2/\xb3\x94@M\xb7\x0b\xc9\x981\x18H\x11\r\xfe\xf4\xc8\xa0\xe0\xc2\xe7\x8fY\x19\x07+\x8c\x95l}e\xa9\xa9#\xef\x07\xaf\xb2K\xdcbW\x06\x05G\xfa]{&amp;\x1f\xddO\xcc\xbb\xb0\xad\xd7\xba&lt;\xf9\x89!l\xd9\xc2o*\x17\x18f4_\x12\x97\x0c|i\xedL\xf5\xc8\x04\xa4\xfa\x8d}\xcd\xf53+\xdf\xcd\x9aO\xb1sw\xcb\'\xec\xa2\xee 0@5k|\'`}\xaa\xb0R\xc4\x1c\xaa\xd7\x1cf\x15xW\xcfl\xbb\xa8\xcb3\xff:G\x88\x85p\x13\x9a\x86\xb8\x1fTGI=\x89Q\x94R\xd2\xe7\t@x\x17a\xcd\x0b\xf9\xba\xc9y\x03p3s\xc5\x1a1\xaf\xda\xd4\xcfHOz\x16\xf4\xf9\x9e\x9b\xfa\x1c\x02&gt;B1\x14\x04\xab@\xedI\xa4\xa3n\x1b\xc7.u'</t>
-  </si>
-  <si>
-    <t>@\x00\xeb\x06j\x86"\xc6\x9e\x8b\xc0\xa8\x01\x07\x01\xbb\xf9C\xa7X~Z6Zm\xcbP\x18\x03\x03\x9a1\x00\x00\x17\x03\x03\x00\xdb\xd5n\x05\x8f\xf3b\x1e\xe6@\xc1\xff\x96e1?\xd2&gt;}I\xe2/\xb3\x94@M\xb7\x0b\xc9\x981\x18H\x11\r\xfe\xf4\xc8\xa0\xe0\xc2\xe7\x8fY\x19\x07+\x8c\x95l}e\xa9\xa9#\xef\x07\xaf\xb2K\xdcbW\x06\x05G\xfa]{&amp;\x1f\xddO\xcc\xbb\xb0\xad\xd7\xba&lt;\xf9\x89!l\xd9\xc2o*\x17\x18f4_\x12\x97\x0c|i\xedL\xf5\xc8\x04\xa4\xfa\x8d}\xcd\xf53+\xdf\xcd\x9aO\xb1sw\xcb\'\xec\xa2\xee 0@5k|\'`}\xaa\xb0R\xc4\x1c\xaa\xd7\x1cf\x15xW\xcfl\xbb\xa8\xcb3\xff:G\x88\x85p\x13\x9a\x86\xb8\x1fTGI=\x89Q\x94R\xd2\xe7\t@x\x17a\xcd\x0b\xf9\xba\xc9y\x03p3s\xc5\x1a1\xaf\xda\xd4\xcfHOz\x16\xf4\xf9\x9e\x9b\xfa\x1c\x02&gt;B1\x14\x04\xab@\xedI\xa4\xa3n\x1b\xc7.u'</t>
-  </si>
-  <si>
-    <t>2019-01-03-09:54:43</t>
-  </si>
-  <si>
-    <t>b'E\x00\x00(Y\t@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07"\xc6\x9e\x8b\xf9C\x01\xbb6Zm\xcb\xa7X\x7f:P\x10\x00\xfc\x83\x1b\x00\x00'</t>
-  </si>
-  <si>
-    <t>\x80\x06\x00\x00\xc0\xa8\x01\x07"\xc6\x9e\x8b\xf9C\x01\xbb6Zm\xcb\xa7X\x7f:P\x10\x00\xfc\x83\x1b\x00\x00'</t>
-  </si>
-  <si>
-    <t>b"E\x00\x01#:;\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xc1\xa5{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xe0\xa3:\xa8"</t>
-  </si>
-  <si>
-    <t>00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xc1\xa5{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xe0\xa3:\xa8"</t>
-  </si>
-  <si>
-    <t>104.16.59.37</t>
-  </si>
-  <si>
-    <t>b'E\x00\x00e\n\xd2@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07h\x10;%\xdc\x9b\x01\xbb-uFjx\x1f/mP\x18\x00\xffe&lt;\x00\x00\x17\x03\x03\x008\x00\x00\x00\x00\x00\x00\x00u#$\x01_\xd0P\xe3\xf8IY\xe1\x8c\xe2\x18e\xef\x0c\\ten_$"\xcb\x8ag0\x8a\xa6\xfb\xa5h\x1d\r\xad8\xba|*+\xe7\xa3\xfa\x17 \x8b_'</t>
-  </si>
-  <si>
-    <t>x00\x80\x06\x00\x00\xc0\xa8\x01\x07h\x10;%\xdc\x9b\x01\xbb-uFjx\x1f/mP\x18\x00\xffe&lt;\x00\x00\x17\x03\x03\x008\x00\x00\x00\x00\x00\x00\x00u#$\x01_\xd0P\xe3\xf8IY\xe1\x8c\xe2\x18e\xef\x0c\\ten_$"\xcb\x8ag0\x8a\xa6\xfb\xa5h\x1d\r\xad8\xba|*+\xe7\xa3\xfa\x17 \x8b_'</t>
-  </si>
-  <si>
-    <t>b'E\x00\x00(vR@\x00;\x06d\x99h\x10;%\xc0\xa8\x01\x07\x01\xbb\xdc\x9bx\x1f/m-uF\xa7P\x10\x00=P\xb3\x00\x00'</t>
-  </si>
-  <si>
-    <t>\x06d\x99h\x10;%\xc0\xa8\x01\x07\x01\xbb\xdc\x9bx\x1f/m-uF\xa7P\x10\x00=P\xb3\x00\x00'</t>
-  </si>
-  <si>
-    <t>b'E\x00\x00\xc4Y\n@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07"\xc6\x9e\x8b\xf9C\x01\xbb6Zm\xcb\xa7X\x7f:P\x18\x00\xfc\x83\xb7\x00\x00\x17\x03\x03\x00\x97\x00\x00\x00\x00\x00\x00\x0c\xec\xf4 \x84\xc6\xdb\xce\xdb\xa8\xffX\rpx\x97\x90\xf6\xd6\x03a=\xe1\x13\x80g\x99K\x92\xef}\x98\xd5,\xba\x86D\xa5\x8aU\xc1\xd8F\xb7\x19\xa1\xcb\xbb\xeb\xcbOK\xbf\x85\xf5P\xeb\x96\xb7\x89\x07\xb35\xfdc9.\xa5S\xb1\xe7\xd2\xedg\x0c\xeb:\xb1&amp;\x17\t\xf8\x9b&gt;\xb5\x00PL[y\xa1\xde\x04H\xe0\xa4K\xfc\xba\x91\xe0}\xbeGL\xf2\xe9=\xec\x14m\x1e]\xd7\xc3\x92O\x8bn\x18\xcas\xaf4\x86\x81\x93\x8a\xf0\xb1\xcf\x8cG\xb5\xc6\xfd\x0f\xe1\x05\xcaL!\x88f\x1f'</t>
-  </si>
-  <si>
-    <t>x00\x80\x06\x00\x00\xc0\xa8\x01\x07"\xc6\x9e\x8b\xf9C\x01\xbb6Zm\xcb\xa7X\x7f:P\x18\x00\xfc\x83\xb7\x00\x00\x17\x03\x03\x00\x97\x00\x00\x00\x00\x00\x00\x0c\xec\xf4 \x84\xc6\xdb\xce\xdb\xa8\xffX\rpx\x97\x90\xf6\xd6\x03a=\xe1\x13\x80g\x99K\x92\xef}\x98\xd5,\xba\x86D\xa5\x8aU\xc1\xd8F\xb7\x19\xa1\xcb\xbb\xeb\xcbOK\xbf\x85\xf5P\xeb\x96\xb7\x89\x07\xb35\xfdc9.\xa5S\xb1\xe7\xd2\xedg\x0c\xeb:\xb1&amp;\x17\t\xf8\x9b&gt;\xb5\x00PL[y\xa1\xde\x04H\xe0\xa4K\xfc\xba\x91\xe0}\xbeGL\xf2\xe9=\xec\x14m\x1e]\xd7\xc3\x92O\x8bn\x18\xcas\xaf4\x86\x81\x93\x8a\xf0\xb1\xcf\x8cG\xb5\xc6\xfd\x0f\xe1\x05\xcaL!\x88f\x1f'</t>
-  </si>
-  <si>
-    <t>2019-01-03-09:54:44</t>
-  </si>
-  <si>
-    <t>b'E\x00\x00PvS@\x00;\x06dph\x10;%\xc0\xa8\x01\x07\x01\xbb\xdc\x9bx\x1f/m-uF\xa7P\x18\x00=?\x1e\x00\x00\x17\x03\x03\x00#\x00\x00\x00\x00\x00\x00\x02\x9f+\xf5x\x12(\\\x8b\x7f\x05Kx\x842\x11\xda\x99h^\xba\xb1J`{\xce"\x98q'</t>
-  </si>
-  <si>
-    <t>\x06dph\x10;%\xc0\xa8\x01\x07\x01\xbb\xdc\x9bx\x1f/m-uF\xa7P\x18\x00=?\x1e\x00\x00\x17\x03\x03\x00#\x00\x00\x00\x00\x00\x00\x02\x9f+\xf5x\x12(\\\x8b\x7f\x05Kx\x842\x11\xda\x99h^\xba\xb1J`{\xce"\x98q'</t>
-  </si>
-  <si>
-    <t>b'E\x00\x00(\n\xd3@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07h\x10;%\xdc\x9b\x01\xbb-uF\xa7x\x1f/\x95P\x10\x00\xffd\xff\x00\x00'</t>
-  </si>
-  <si>
-    <t>x00\x80\x06\x00\x00\xc0\xa8\x01\x07h\x10;%\xdc\x9b\x01\xbb-uF\xa7x\x1f/\x95P\x10\x00\xffd\xff\x00\x00'</t>
-  </si>
-  <si>
-    <t>b'E\x00\x01\x08b\xba@\x00\xeb\x06\xa94"\xc6\x9e\x8b\xc0\xa8\x01\x07\x01\xbb\xf9M\x92\x7f(Bv9Q\xf2P\x18\x03\x03f\xd4\x00\x00\x17\x03\x03\x00\xdb\x1a\xd5\x01\xe60\xd8\xee_\x0f&gt;\x9c\xce\xf5\xef\x01\xd5\x8c\xdb\xaa&amp;\xf5Y+\x81U\x032\xd0Nj\x84\n\xfd\x11\x16\x98\xb4&amp;M\xa4\x9e\xead\x1fg\xe7\xc5t9|\x10\x85\x9d\x9d}\xa99\xc6\xf9\xff,\xc5\xc6\x85"\xbf\x12\x14\xee\xb0\xfc\xaf\x0b\xa4V\xf4\x9c\xd1\xf1\x01{\x02\xf7iA$I\x12\x0c\xc4\x87\xd7\x9a.\xc4x\xd8\xaf\x8f\xcbS\x13\xd8\xd8\xa5\xaa\xcd\x0fw&amp;\xb2\x0e\x878\x9d\xdf\xf1\xe2\xe6\x87?\xe9,\x9ePo\x82k\xb6Dr\xd3!\x99\xc12\xd8\xb0\xcd\x82-\x89;\xf7\xc0W\x0e\xd3&gt;\xb6\xd4\x18.\x05\x00$\x0e\xd6z$I\xad\xdb\xf5\xfa\x94\xf0\xf2\xc6v\xe8&lt;1\xd4Z;\x14\x1b\x1e\x80\xad\xee\x81\x0b\xe7N\x9en\xfe!\xa5\x8dW\xdf&amp;\xb1\xc7\x8b\x90"\x91]\xfeNr4\xec@#h%\xe4\xae\xb6\x0c\x8dc\xd5\x90'</t>
-  </si>
-  <si>
-    <t>@\x00\xeb\x06\xa94"\xc6\x9e\x8b\xc0\xa8\x01\x07\x01\xbb\xf9M\x92\x7f(Bv9Q\xf2P\x18\x03\x03f\xd4\x00\x00\x17\x03\x03\x00\xdb\x1a\xd5\x01\xe60\xd8\xee_\x0f&gt;\x9c\xce\xf5\xef\x01\xd5\x8c\xdb\xaa&amp;\xf5Y+\x81U\x032\xd0Nj\x84\n\xfd\x11\x16\x98\xb4&amp;M\xa4\x9e\xead\x1fg\xe7\xc5t9|\x10\x85\x9d\x9d}\xa99\xc6\xf9\xff,\xc5\xc6\x85"\xbf\x12\x14\xee\xb0\xfc\xaf\x0b\xa4V\xf4\x9c\xd1\xf1\x01{\x02\xf7iA$I\x12\x0c\xc4\x87\xd7\x9a.\xc4x\xd8\xaf\x8f\xcbS\x13\xd8\xd8\xa5\xaa\xcd\x0fw&amp;\xb2\x0e\x878\x9d\xdf\xf1\xe2\xe6\x87?\xe9,\x9ePo\x82k\xb6Dr\xd3!\x99\xc12\xd8\xb0\xcd\x82-\x89;\xf7\xc0W\x0e\xd3&gt;\xb6\xd4\x18.\x05\x00$\x0e\xd6z$I\xad\xdb\xf5\xfa\x94\xf0\xf2\xc6v\xe8&lt;1\xd4Z;\x14\x1b\x1e\x80\xad\xee\x81\x0b\xe7N\x9en\xfe!\xa5\x8dW\xdf&amp;\xb1\xc7\x8b\x90"\x91]\xfeNr4\xec@#h%\xe4\xae\xb6\x0c\x8dc\xd5\x90'</t>
-  </si>
-  <si>
-    <t>b'E\x00\x01\x08\xe9\x91@\x00\xeb\x06"]"\xc6\x9e\x8b\xc0\xa8\x01\x07\x01\xbb\xf9T\xea\xa6\xc2*\x98\x11\x03QP\x18\x03\x03\xe1\xc3\x00\x00\x17\x03\x03\x00\xdba\xcd@\x9eb\xbc\xd8g\xc8\x8f\x1e\xfa\xb3\x0fO\xf0\xd2\xa0\xad/\x84\x85\x13NW\x06\xb0\x84ks\xc6\x9e\xd0k~\x97\xfd\x95m\x97\xa7\x91Y\x1f\n;\x8e\xef*\x7f\xc3\x91m\x0e2\x8e\x03\xa5/\x9a\x17\xeb\xaa&gt;\xd3\xe1\x03\x17\x1c\x1c"\x08\xf1\x98d\x84\x07\x8c)\x1eJR\x1a\xc4\t\xbdN\xd4\xeeI\x9c\x94i;V\xa2\xab\x9fI\xc6\x89\xec(\xf2\xe3\xaa\x04\xb3t\xb3\x81t\xc3\xaf\xc6\x82\xe7v\']\xb9\xb3\xf2r\x01\x93\xbe+\xcb\x08X\xe30(:\\*:\xe1\xdd\x04\xc19^^\x88,\\H\xfe\xbd2w c\xbdv\x08\x04ak\x075\x9b\'\xf1\xd1\xc0\xe6X\xbbh\x0eEH\xd7B\xe1\xbf\n`\x00]R\x84\x96\xb7\'\x8e\xd7\xca\x07\xd6O\xcf\x036l\x1b\x9c\x00\xc8\x82\xfbVIB\xd2q\xfbd\x9b\xd7H\xc0\xf3_o4'</t>
-  </si>
-  <si>
-    <t>x91@\x00\xeb\x06"]"\xc6\x9e\x8b\xc0\xa8\x01\x07\x01\xbb\xf9T\xea\xa6\xc2*\x98\x11\x03QP\x18\x03\x03\xe1\xc3\x00\x00\x17\x03\x03\x00\xdba\xcd@\x9eb\xbc\xd8g\xc8\x8f\x1e\xfa\xb3\x0fO\xf0\xd2\xa0\xad/\x84\x85\x13NW\x06\xb0\x84ks\xc6\x9e\xd0k~\x97\xfd\x95m\x97\xa7\x91Y\x1f\n;\x8e\xef*\x7f\xc3\x91m\x0e2\x8e\x03\xa5/\x9a\x17\xeb\xaa&gt;\xd3\xe1\x03\x17\x1c\x1c"\x08\xf1\x98d\x84\x07\x8c)\x1eJR\x1a\xc4\t\xbdN\xd4\xeeI\x9c\x94i;V\xa2\xab\x9fI\xc6\x89\xec(\xf2\xe3\xaa\x04\xb3t\xb3\x81t\xc3\xaf\xc6\x82\xe7v\']\xb9\xb3\xf2r\x01\x93\xbe+\xcb\x08X\xe30(:\\*:\xe1\xdd\x04\xc19^^\x88,\\H\xfe\xbd2w c\xbdv\x08\x04ak\x075\x9b\'\xf1\xd1\xc0\xe6X\xbbh\x0eEH\xd7B\xe1\xbf\n`\x00]R\x84\x96\xb7\'\x8e\xd7\xca\x07\xd6O\xcf\x036l\x1b\x9c\x00\xc8\x82\xfbVIB\xd2q\xfbd\x9b\xd7H\xc0\xf3_o4'</t>
-  </si>
-  <si>
-    <t>b'E\x00\x00(\xa1i@\x00\xeb\x06ke"\xc6\x9e\x8b\xc0\xa8\x01\x07\x01\xbb\xf9C\xa7X\x7f:6ZngP\x10\x03\x03c}\x00\x00'</t>
-  </si>
-  <si>
-    <t>00\xeb\x06ke"\xc6\x9e\x8b\xc0\xa8\x01\x07\x01\xbb\xf9C\xa7X\x7f:6ZngP\x10\x03\x03c}\x00\x00'</t>
-  </si>
-  <si>
-    <t>b'E\x00\x00(Y\x0c@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07"\xc6\x9e\x8b\xf9T\x01\xbb\x98\x11\x03Q\xea\xa6\xc3\nP\x10\x00\xfc\x83\x1b\x00\x00'</t>
-  </si>
-  <si>
-    <t>00\x80\x06\x00\x00\xc0\xa8\x01\x07"\xc6\x9e\x8b\xf9T\x01\xbb\x98\x11\x03Q\xea\xa6\xc3\nP\x10\x00\xfc\x83\x1b\x00\x00'</t>
-  </si>
-  <si>
-    <t>b"E\x00\x01#:&lt;\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xc2\xa5{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x04S\xfe\xe2"</t>
-  </si>
-  <si>
-    <t>00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xc2\xa5{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x04S\xfe\xe2"</t>
+    <t>b'E\x00\x00\x9dY\x16@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\x06\xcc*\x1fI\x13\x15\xe9Nz\xc35\xb3P\x18\x00\xfc\x83\xed\x00\x00\x17\x03\x03\x00p\x00\x00\x00\x00\x00\x00"\xde\x11\xaf\x01\xba%\x01\xc3\xa6G\xef\x04\xea\x19\xc2\xa6\x7f\xdfF\x84\x80\x12\x9d\x12\x18.h\xbf\xab\x0fha\x99\x92i\xac)\xe4\xaa$\xafe@\xf0S\x91\xffw\xb3\x9f\xdd\xaa\xfa\xa4\xdc\x10\x9e\x0b#\xa4iU\x13\xbeh\xf2K=\xa8\x0c\xf8\xe5O\x02p\xb4"K"BB\x94\x89\xb2f\x14\x84\xac1\x0fS\xdb\x0b\x1c\x94\xa3p\xb0\x1fS|eX\xf3&lt;'</t>
+  </si>
+  <si>
+    <t>@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\x06\xcc*\x1fI\x13\x15\xe9Nz\xc35\xb3P\x18\x00\xfc\x83\xed\x00\x00\x17\x03\x03\x00p\x00\x00\x00\x00\x00\x00"\xde\x11\xaf\x01\xba%\x01\xc3\xa6G\xef\x04\xea\x19\xc2\xa6\x7f\xdfF\x84\x80\x12\x9d\x12\x18.h\xbf\xab\x0fha\x99\x92i\xac)\xe4\xaa$\xafe@\xf0S\x91\xffw\xb3\x9f\xdd\xaa\xfa\xa4\xdc\x10\x9e\x0b#\xa4iU\x13\xbeh\xf2K=\xa8\x0c\xf8\xe5O\x02p\xb4"K"BB\x94\x89\xb2f\x14\x84\xac1\x0fS\xdb\x0b\x1c\x94\xa3p\xb0\x1fS|eX\xf3&lt;'</t>
+  </si>
+  <si>
+    <t>b"E\x00\x01#\x1e\x0e\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xe1\xd7{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x1e\xe5r\xaf"</t>
+  </si>
+  <si>
+    <t>\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xe1\xd7{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x1e\xe5r\xaf"</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00\x9d\xe2\x18@\x00@\x06\xd4\xe4\xc0\xa8\x01\x06\xc0\xa8\x01\x07\x1fI\xcc*z\xc35\xb3\x13\x15\xe9\xc3P\x18\x02\x94\x86,\x00\x00\x17\x03\x03\x00p\x00\x00\x00\x00\x00\x00"\xd3\x8f!jM\xcbb\xf20\xc7\'\x91m\xbfnuwt\n\xa3^r\x15FUH\xc5\xe9T\x06\x05\xbc \xe3*\xc3\xd8\x11/\x00\xfd\x02\xcd\xc5X\xf1\x1a\xd1A\xb8\xa7$\x85g:\x04\x10^1\xed\xab\x1d\x99\xfb\xc5WtK8\n\xccb\x18uf|\xf0\xa62\x0ey`m\x1b1z\xd1\x0b\x1f\xbc\xe3\xf0l\x1a\x90&gt;\xfeO;\x8e\xadb1V\x99'</t>
+  </si>
+  <si>
+    <t>x18@\x00@\x06\xd4\xe4\xc0\xa8\x01\x06\xc0\xa8\x01\x07\x1fI\xcc*z\xc35\xb3\x13\x15\xe9\xc3P\x18\x02\x94\x86,\x00\x00\x17\x03\x03\x00p\x00\x00\x00\x00\x00\x00"\xd3\x8f!jM\xcbb\xf20\xc7\'\x91m\xbfnuwt\n\xa3^r\x15FUH\xc5\xe9T\x06\x05\xbc \xe3*\xc3\xd8\x11/\x00\xfd\x02\xcd\xc5X\xf1\x1a\xd1A\xb8\xa7$\x85g:\x04\x10^1\xed\xab\x1d\x99\xfb\xc5WtK8\n\xccb\x18uf|\xf0\xa62\x0ey`m\x1b1z\xd1\x0b\x1f\xbc\xe3\xf0l\x1a\x90&gt;\xfeO;\x8e\xadb1V\x99'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00(Y\x18@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\x06\xcc*\x1fI\x13\x15\xe9\xc3z\xc36(P\x10\x00\xfb\x83x\x00\x00'</t>
+  </si>
+  <si>
+    <t>00\x80\x06\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\x06\xcc*\x1fI\x13\x15\xe9\xc3z\xc36(P\x10\x00\xfb\x83x\x00\x00'</t>
+  </si>
+  <si>
+    <t>172.217.3.202</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00)nC@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\xac\xd9\x03\xca\xec\xe2\x01\xbbq\x81&gt;\xd2\xbc\xfeF\x0fP\x10\x01\x02rn\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>x80\x06\x00\x00\xc0\xa8\x01\x07\xac\xd9\x03\xca\xec\xe2\x01\xbbq\x81&gt;\xd2\xbc\xfeF\x0fP\x10\x01\x02rn\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>172.217.3.206</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00)PK@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\xac\xd9\x03\xce\xec\xe3\x01\xbbC1Vv\xa2\xe8\x1bBP\x10\x00\xfdrr\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>x80\x06\x00\x00\xc0\xa8\x01\x07\xac\xd9\x03\xce\xec\xe3\x01\xbbC1Vv\xa2\xe8\x1bBP\x10\x00\xfdrr\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x004\xac\xd5\x00\x00z\x06!\x9c\xac\xd9\x03\xca\xc0\xa8\x01\x07\x01\xbb\xec\xe2\xbc\xfeF\x0fq\x81&gt;\xd3\x80\x10\x00\xf6\x03\xcc\x00\x00\x01\x01\x05\nq\x81&gt;\xd2q\x81&gt;\xd3'</t>
+  </si>
+  <si>
+    <t>\x00\x00z\x06!\x9c\xac\xd9\x03\xca\xc0\xa8\x01\x07\x01\xbb\xec\xe2\xbc\xfeF\x0fq\x81&gt;\xd3\x80\x10\x00\xf6\x03\xcc\x00\x00\x01\x01\x05\nq\x81&gt;\xd2q\x81&gt;\xd3'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x004\xc9!\x00\x00z\x06\x05L\xac\xd9\x03\xce\xc0\xa8\x01\x07\x01\xbb\xec\xe3\xa2\xe8\x1bBC1Vw\x80\x10\x01\x00\x8c\xa4\x00\x00\x01\x01\x05\nC1VvC1Vw'</t>
+  </si>
+  <si>
+    <t>0\x00z\x06\x05L\xac\xd9\x03\xce\xc0\xa8\x01\x07\x01\xbb\xec\xe3\xa2\xe8\x1bBC1Vw\x80\x10\x01\x00\x8c\xa4\x00\x00\x01\x01\x05\nC1VvC1Vw'</t>
+  </si>
+  <si>
+    <t>104.19.198.151</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00);[@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07h\x13\xc6\x97\xed\xe0\x01\xbb\xa7\xce\x92/\xb9+b\xc0P\x10\x01\x00\xf0u\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>x80\x06\x00\x00\xc0\xa8\x01\x07h\x13\xc6\x97\xed\xe0\x01\xbb\xa7\xce\x92/\xb9+b\xc0P\x10\x01\x00\xf0u\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>104.25.132.109</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00)d\xd8@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07h\x19\x84m\xed\xdd\x01\xbb.\xb0Zz)\xea\xb3GP\x10\x00\xfc\xaeQ\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>00\x80\x06\x00\x00\xc0\xa8\x01\x07h\x19\x84m\xed\xdd\x01\xbb.\xb0Zz)\xea\xb3GP\x10\x00\xfc\xaeQ\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x004\x84\x00@\x00;\x06\xcbih\x13\xc6\x97\xc0\xa8\x01\x07\x01\xbb\xed\xe0\xb9+b\xc0\xa7\xce\x920\x80\x10\x00 \xcf\xbe\x00\x00\x01\x01\x05\n\xa7\xce\x92/\xa7\xce\x920'</t>
+  </si>
+  <si>
+    <t>@\x00;\x06\xcbih\x13\xc6\x97\xc0\xa8\x01\x07\x01\xbb\xed\xe0\xb9+b\xc0\xa7\xce\x920\x80\x10\x00 \xcf\xbe\x00\x00\x01\x01\x05\n\xa7\xce\x92/\xa7\xce\x920'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x004\xdd\xd7@\x00;\x06\xb3\xb6h\x19\x84m\xc0\xa8\x01\x07\x01\xbb\xed\xdd)\xea\xb3G.\xb0Z{\x80\x10\x00 c\x1b\x00\x00\x01\x01\x05\n.\xb0Zz.\xb0Z{'</t>
+  </si>
+  <si>
+    <t>@\x00;\x06\xb3\xb6h\x19\x84m\xc0\xa8\x01\x07\x01\xbb\xed\xdd)\xea\xb3G.\xb0Z{\x80\x10\x00 c\x1b\x00\x00\x01\x01\x05\n.\xb0Zz.\xb0Z{'</t>
+  </si>
+  <si>
+    <t>151.101.64.134</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00)4\x9c@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\x97e@\x86\xed\xe6\x01\xbb\xe6{\x972\x84N\x1b6P\x10\x01\x00\x99\xb6\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>00\x80\x06\x00\x00\xc0\xa8\x01\x07\x97e@\x86\xed\xe6\x01\xbb\xe6{\x972\x84N\x1b6P\x10\x01\x00\x99\xb6\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x004\x83\x13@\x005\x06)\x16\x97e@\x86\xc0\xa8\x01\x07\x01\xbb\xed\xe6\x84N\x1b6\xe6{\x973\x80\x10\x00@\xd7\xae\x00\x00\x01\x01\x05\n\xe6{\x972\xe6{\x973'</t>
+  </si>
+  <si>
+    <t>@\x005\x06)\x16\x97e@\x86\xc0\xa8\x01\x07\x01\xbb\xed\xe6\x84N\x1b6\xe6{\x973\x80\x10\x00@\xd7\xae\x00\x00\x01\x01\x05\n\xe6{\x972\xe6{\x973'</t>
+  </si>
+  <si>
+    <t>2019-01-03-13:28:37</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00Mvk@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07"\xc6\x9e\x8b\xf9M\x01\xbbv:\xc7\x0e\x92\x81\x01mP\x18\x00\xfe\x83@\x00\x00\x17\x03\x03\x00 \x00\x00\x00\x00\x00\x00\x11\xd0g\x93\xf8dm\xec\xb6\x02XK!-~\x89k[\x87\xd0\xa8,\x84\x0c{\xcb'</t>
+  </si>
+  <si>
+    <t>x80\x06\x00\x00\xc0\xa8\x01\x07"\xc6\x9e\x8b\xf9M\x01\xbbv:\xc7\x0e\x92\x81\x01mP\x18\x00\xfe\x83@\x00\x00\x17\x03\x03\x00 \x00\x00\x00\x00\x00\x00\x11\xd0g\x93\xf8dm\xec\xb6\x02XK!-~\x89k[\x87\xd0\xa8,\x84\x0c{\xcb'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00Jj\xb7@\x00\xeb\x06\xa1\xf5"\xc6\x9e\x8b\xc0\xa8\x01\x07\x01\xbb\xf9M\x92\x81\x01mv:\xc73P\x18\x03\x03\x81\x13\x00\x00\x17\x03\x03\x00\x1d\x1a\xd5\x01\xe60\xd8\xf3@\x0f\x1eeF\xd7\x96\x83\xbf\xf43\x04\xb9J\xfd\x98\x83\xcb\xde\x84\xc8\xed'</t>
+  </si>
+  <si>
+    <t>00\xeb\x06\xa1\xf5"\xc6\x9e\x8b\xc0\xa8\x01\x07\x01\xbb\xf9M\x92\x81\x01mv:\xc73P\x18\x03\x03\x81\x13\x00\x00\x17\x03\x03\x00\x1d\x1a\xd5\x01\xe60\xd8\xf3@\x0f\x1eeF\xd7\x96\x83\xbf\xf43\x04\xb9J\xfd\x98\x83\xcb\xde\x84\xc8\xed'</t>
+  </si>
+  <si>
+    <t>205.196.6.67</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00pz[\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xcd\xc4\x06C\xe2\x93i\x89\x00\\\x96$VS010\x00\x07\x04\x1e\x00\x00\x00\x16\x0e\x1e\x01\x00\x00\x00\x005\x02\x00\x00\x01\x00\x00\x00\x00\x00\x00\x000\x00\x00\x00]nj\x81\x180mX\x7f\xf4u^\xdf1\xf6~\xce\xd5\xd8K)\xefq\x90{"\x90\x9c\x8a\x8d\x07\x93\xe0\x9dnB\xc5.\x16*\xa4o\xd4\xf89\xa7\xee\xd6'</t>
+  </si>
+  <si>
+    <t>00\x80\x11\x00\x00\xc0\xa8\x01\x07\xcd\xc4\x06C\xe2\x93i\x89\x00\\\x96$VS010\x00\x07\x04\x1e\x00\x00\x00\x16\x0e\x1e\x01\x00\x00\x00\x005\x02\x00\x00\x01\x00\x00\x00\x00\x00\x00\x000\x00\x00\x00]nj\x81\x180mX\x7f\xf4u^\xdf1\xf6~\xce\xd5\xd8K)\xefq\x90{"\x90\x9c\x8a\x8d\x07\x93\xe0\x9dnB\xc5.\x16*\xa4o\xd4\xf89\xa7\xee\xd6'</t>
+  </si>
+  <si>
+    <t>24.105.28.10</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00mt\xbf@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\x18i\x1c\n\xfc\xf7\x04_i\x9f\x87Q\x95\xb9\xeeQP\x18\xf7\xd8\xf6\x81\x00\x00\x17\x03\x03\x00@g\xa85P)\xac\x93\xaa\x85\x88\xf4\xf6\x15\x19\xc4~\xb1\xf0#\x8dP6\xf5\xe9 \x95\xc5\xf6sBp\xdftW\xf2d\xe8\xea\x7f\x82\xc2}H\xaf\x18h\xf6\x08\xdbL\x19&lt;\xbdt\xb6C\x0f% \xecVU\x83\x16'</t>
+  </si>
+  <si>
+    <t>00\x80\x06\x00\x00\xc0\xa8\x01\x07\x18i\x1c\n\xfc\xf7\x04_i\x9f\x87Q\x95\xb9\xeeQP\x18\xf7\xd8\xf6\x81\x00\x00\x17\x03\x03\x00@g\xa85P)\xac\x93\xaa\x85\x88\xf4\xf6\x15\x19\xc4~\xb1\xf0#\x8dP6\xf5\xe9 \x95\xc5\xf6sBp\xdftW\xf2d\xe8\xea\x7f\x82\xc2}H\xaf\x18h\xf6\x08\xdbL\x19&lt;\xbdt\xb6C\x0f% \xecVU\x83\x16'</t>
+  </si>
+  <si>
+    <t>104.16.60.37</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00e\x0c\xf6@\x00;\x06\xcc\xb8h\x10&lt;%\xc0\xa8\x01\x07\x01\xbb\xed\x8e{\xb6:O\x104\xaf1P\x18\x00U\x9e\x80\x00\x00\x17\x03\x03\x008\x00\x00\x00\x00\x00\x00\x051\xa8C\xe3{\xe5\xd5\xca[u\xb77l\xda\xc9\xbb;\xdc\x06\xf4L\xe7\xb7\xc5\xbaPl%\x13\xec\xfdzh\x03x]Y5\x08\xd1\xe7\xcd3\x04v\xc7m=#'</t>
+  </si>
+  <si>
+    <t>@\x00;\x06\xcc\xb8h\x10&lt;%\xc0\xa8\x01\x07\x01\xbb\xed\x8e{\xb6:O\x104\xaf1P\x18\x00U\x9e\x80\x00\x00\x17\x03\x03\x008\x00\x00\x00\x00\x00\x00\x051\xa8C\xe3{\xe5\xd5\xca[u\xb77l\xda\xc9\xbb;\xdc\x06\xf4L\xe7\xb7\xc5\xbaPl%\x13\xec\xfdzh\x03x]Y5\x08\xd1\xe7\xcd3\x04v\xc7m=#'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00(w)@\x004\x06\xd9\x84\x18i\x1c\n\xc0\xa8\x01\x07\x04_\xfc\xf7\x95\xb9\xeeQi\x9f\x87\x96P\x10\xa9\x83\x99\x96\x00\x00'</t>
+  </si>
+  <si>
+    <t>\x06\xd9\x84\x18i\x1c\n\xc0\xa8\x01\x07\x04_\xfc\xf7\x95\xb9\xeeQi\x9f\x87\x96P\x10\xa9\x83\x99\x96\x00\x00'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00(7^@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07h\x10&lt;%\xed\x8e\x01\xbb\x104\xaf1{\xb6:\x8cP\x10\x00\xfde\xff\x00\x00'</t>
+  </si>
+  <si>
+    <t>x80\x06\x00\x00\xc0\xa8\x01\x07h\x10&lt;%\xed\x8e\x01\xbb\x104\xaf1{\xb6:\x8cP\x10\x00\xfde\xff\x00\x00'</t>
+  </si>
+  <si>
+    <t>b"E\x00\x01#\x1e\x10\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xe2\xd7{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xfa\x15\xb6\xe5"</t>
+  </si>
+  <si>
+    <t>\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xe2\xd7{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xfa\x15\xb6\xe5"</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00jh\xc3@\x00\x80\x06\x00\x00\xc0\xa8\x01\x076\x95%U\xd2h\x01\xbb\xe3\x96\x9a v3$\xfaP\x18\x01\x00\x1d\xf6\x00\x00\x17\x03\x03\x00=\x00\x00\x00\x00\x00\x00\x01\x82\r+\xdc\xd7;4\x02\xaeob\n\xdcl\xfc*D\x0c\xa3\r+=H\x89\xf5\xc0\x8c5s\xdf7l4N\xb8N\x96\x15\xf5\x96\xa9h\xd2/V\x10:\x85\xf3\xa3\xba\xc7g\xc6'</t>
+  </si>
+  <si>
+    <t>00\x80\x06\x00\x00\xc0\xa8\x01\x076\x95%U\xd2h\x01\xbb\xe3\x96\x9a v3$\xfaP\x18\x01\x00\x1d\xf6\x00\x00\x17\x03\x03\x00=\x00\x00\x00\x00\x00\x00\x01\x82\r+\xdc\xd7;4\x02\xaeob\n\xdcl\xfc*D\x0c\xa3\r+=H\x89\xf5\xc0\x8c5s\xdf7l4N\xb8N\x96\x15\xf5\x96\xa9h\xd2/V\x10:\x85\xf3\xa3\xba\xc7g\xc6'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00(\xa7\x91@\x00(\x06\x8d\xa56\x95%U\xc0\xa8\x01\x07\x01\xbb\xd2hv3$\xfa\xe3\x96\x9abP\x10\x00\n\xa4\xe6\x00\x00'</t>
+  </si>
+  <si>
+    <t>@\x00(\x06\x8d\xa56\x95%U\xc0\xa8\x01\x07\x01\xbb\xd2hv3$\xfa\xe3\x96\x9abP\x10\x00\n\xa4\xe6\x00\x00'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00)\x0e\x04@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\x97e4\x86\xed\xe8\x01\xbb\xee\x05\xbd\xd8\x913$\xacP\x10\x00\xfd\x8d\xb6\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\x97e4\x86\xed\xe8\x01\xbb\xee\x05\xbd\xd8\x913$\xacP\x10\x00\xfd\x8d\xb6\x00\x00\x00'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x004u\xd0@\x005\x06BY\x97e4\x86\xc0\xa8\x01\x07\x01\xbb\xed\xe8\x913$\xac\xee\x05\xbd\xd9\x80\x10\x00DB\xbd\x00\x00\x01\x01\x05\n\xee\x05\xbd\xd8\xee\x05\xbd\xd9'</t>
+  </si>
+  <si>
+    <t>005\x06BY\x97e4\x86\xc0\xa8\x01\x07\x01\xbb\xed\xe8\x913$\xac\xee\x05\xbd\xd9\x80\x10\x00DB\xbd\x00\x00\x01\x01\x05\n\xee\x05\xbd\xd8\xee\x05\xbd\xd9'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00\xc4vm@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07"\xc6\x9e\x8b\xf9M\x01\xbbv:\xc73\x92\x81\x02oP\x18\x00\xfd\x83\xb7\x00\x00\x17\x03\x03\x00\x97\x00\x00\x00\x00\x00\x00\x11\xd1|\xde\xca@\x9a\xe1\x95\xd2\x073\x0e\x01\xf2\xf4\xd3N\xf6\xc0\xc8\xff\xea\xba\xdf]g\xe2\xd5\x1bG\xdbC\xf6p$U\xce\xc3\xba&gt;\x8f\x84\xee\xdfd3\x13\xd2\xbfU\xc8\x1e\xdf&gt;\xab\xff\x93\xc5\xfa\xd5im\xac`\xc9\x84\x19\x0b\xbd\x82\xb5x\x07Y\xed=u\x12%\xee\xd7\xee\xb4b\x8f\x1c\xa2\xd1\xabs\xa5\x97\xa6\xc0\xbaQ&amp;\x0et\x88\xf1%6\x8d\x81\xf5,5\x055\x16QM\x92\xac{jjU\x1e\xd5^\xabwe\xe8_\x18\xbc\xd2%en\xdf\xab@1\xe9\xe8#\xd4\xeaW\x9d'</t>
+  </si>
+  <si>
+    <t>00\x80\x06\x00\x00\xc0\xa8\x01\x07"\xc6\x9e\x8b\xf9M\x01\xbbv:\xc73\x92\x81\x02oP\x18\x00\xfd\x83\xb7\x00\x00\x17\x03\x03\x00\x97\x00\x00\x00\x00\x00\x00\x11\xd1|\xde\xca@\x9a\xe1\x95\xd2\x073\x0e\x01\xf2\xf4\xd3N\xf6\xc0\xc8\xff\xea\xba\xdf]g\xe2\xd5\x1bG\xdbC\xf6p$U\xce\xc3\xba&gt;\x8f\x84\xee\xdfd3\x13\xd2\xbfU\xc8\x1e\xdf&gt;\xab\xff\x93\xc5\xfa\xd5im\xac`\xc9\x84\x19\x0b\xbd\x82\xb5x\x07Y\xed=u\x12%\xee\xd7\xee\xb4b\x8f\x1c\xa2\xd1\xabs\xa5\x97\xa6\xc0\xbaQ&amp;\x0et\x88\xf1%6\x8d\x81\xf5,5\x055\x16QM\x92\xac{jjU\x1e\xd5^\xabwe\xe8_\x18\xbc\xd2%en\xdf\xab@1\xe9\xe8#\xd4\xeaW\x9d'</t>
+  </si>
+  <si>
+    <t>2019-01-03-13:28:38</t>
+  </si>
+  <si>
+    <t>b'E\x00\x01\x08\xf1\x96@\x00\xeb\x06\x1aX"\xc6\x9e\x8b\xc0\xa8\x01\x07\x01\xbb\xf9T\xea\xa8\x9br\x98\x12xmP\x18\x03\x03\x8c\xde\x00\x00\x17\x03\x03\x00\xdba\xcd@\x9eb\xbc\xddIC\x1a\xedp\x88\xf2\x8f\xd0B\xb2[\x81\xd4]"\x19 \xd8\xd5\x8dq+\x84Q`\xb1i\xb8t-\x05\xc5\xf9\xab2\xdc\x97P\x0c\xad;!,+IJ\xa1D\xc1\x9d\n\x16\xe4\x9a\x84{~\xceq\x8f\xd5\xda\xe4\x90F\xad9}\xf1\xb9~\x96\xd9&amp;\xf3AwD\x9c+x\xf7J\n\x9e\xfb\x06\x8f\x02\xee\xeb\xb3\xfa\xdbL \xf6\xcd\xc0.\x19\x14\x01\xc7&amp;[\xd8e\xf6\xd3\x85\x93\x87GC\x05\x1b\xd9\xd0,\xff)\x1f0\x96\xefBP%r\xcb\t;\xed\xa6!\xd8E\x99\xde6}\xcc\xce\xec\xd2\x86E\xf5i%\'\x88\xa02\x9a2A\x91\xba-\xde\\\x96\xc8\xc5/\xed\x87-\x01\xcaU\x03\x9a\xe4\x7f\xa6\xdc\xb8\x85&lt;\xd5\x17#/\x83\x89\xa0K\xd0\xbc\xeb\x14\xccDJ9\x89w\xd5R\x92\xf5q|\xd7*\x0b\xb9\x98'</t>
+  </si>
+  <si>
+    <t>x96@\x00\xeb\x06\x1aX"\xc6\x9e\x8b\xc0\xa8\x01\x07\x01\xbb\xf9T\xea\xa8\x9br\x98\x12xmP\x18\x03\x03\x8c\xde\x00\x00\x17\x03\x03\x00\xdba\xcd@\x9eb\xbc\xddIC\x1a\xedp\x88\xf2\x8f\xd0B\xb2[\x81\xd4]"\x19 \xd8\xd5\x8dq+\x84Q`\xb1i\xb8t-\x05\xc5\xf9\xab2\xdc\x97P\x0c\xad;!,+IJ\xa1D\xc1\x9d\n\x16\xe4\x9a\x84{~\xceq\x8f\xd5\xda\xe4\x90F\xad9}\xf1\xb9~\x96\xd9&amp;\xf3AwD\x9c+x\xf7J\n\x9e\xfb\x06\x8f\x02\xee\xeb\xb3\xfa\xdbL \xf6\xcd\xc0.\x19\x14\x01\xc7&amp;[\xd8e\xf6\xd3\x85\x93\x87GC\x05\x1b\xd9\xd0,\xff)\x1f0\x96\xefBP%r\xcb\t;\xed\xa6!\xd8E\x99\xde6}\xcc\xce\xec\xd2\x86E\xf5i%\'\x88\xa02\x9a2A\x91\xba-\xde\\\x96\xc8\xc5/\xed\x87-\x01\xcaU\x03\x9a\xe4\x7f\xa6\xdc\xb8\x85&lt;\xd5\x17#/\x83\x89\xa0K\xd0\xbc\xeb\x14\xccDJ9\x89w\xd5R\x92\xf5q|\xd7*\x0b\xb9\x98'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00(j\xb9@\x00\xeb\x06\xa2\x15"\xc6\x9e\x8b\xc0\xa8\x01\x07\x01\xbb\xf9M\x92\x81\x02ov:\xc7\xcfP\x10\x03\x03[\xcd\x00\x00'</t>
+  </si>
+  <si>
+    <t>00\xeb\x06\xa2\x15"\xc6\x9e\x8b\xc0\xa8\x01\x07\x01\xbb\xf9M\x92\x81\x02ov:\xc7\xcfP\x10\x03\x03[\xcd\x00\x00'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00(vn@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07"\xc6\x9e\x8b\xf9T\x01\xbb\x98\x12xm\xea\xa8\x9cRP\x10\x00\xfd\x83\x1b\x00\x00'</t>
+  </si>
+  <si>
+    <t>x80\x06\x00\x00\xc0\xa8\x01\x07"\xc6\x9e\x8b\xf9T\x01\xbb\x98\x12xm\xea\xa8\x9cRP\x10\x00\xfd\x83\x1b\x00\x00'</t>
+  </si>
+  <si>
+    <t>b"E\x00\x01#\x1e\x11\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xe3\xd7{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xa6E\n\xdc"</t>
+  </si>
+  <si>
+    <t>\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xe3\xd7{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xa6E\n\xdc"</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00\xc4vo@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07"\xc6\x9e\x8b\xf9T\x01\xbb\x98\x12xm\xea\xa8\x9cRP\x18\x00\xfd\x83\xb7\x00\x00\x17\x03\x03\x00\x97\x00\x00\x00\x00\x00\x00\x11\xd0\x87\xf5\xb1\xd8\xfcf\xf8\x02\x95\xc3\x18\xcb\xb3\x87\x95\xf4\x92\xd39\x14r2$\xc4\xfaRN2&lt;\xdd6\xb9\xc6|\x1f%H\xa3\xf1F\xef\x97]\x96\xe8\xdc\xd0\xcfS\xb8h\x12\x86\x9b \xfe\x99\xc5\xb9\x1c\x1fe\x80\xf2\xb3\x9d\x82\xf8\xe5\x00\x16P\xb8\xd8\xe4\xb26k\xd9\xce\x8c%\x0f\xa7\x04\xbe\xa7\x0c\x13\xffgs\xd8\xa8\xf89\x8aT\x9e\x8b\x9b"\x03\xa2\xef\xf8(Y`\xa4LD\x98\x83\xeb\xbba\x98\xb9\xe7\xbe\xb5y5\xaf2\xe5\xd9g\xc0`X\x9bM\xe7a\x9ev\x9cu&amp;\x8c#'</t>
+  </si>
+  <si>
+    <t>00\x80\x06\x00\x00\xc0\xa8\x01\x07"\xc6\x9e\x8b\xf9T\x01\xbb\x98\x12xm\xea\xa8\x9cRP\x18\x00\xfd\x83\xb7\x00\x00\x17\x03\x03\x00\x97\x00\x00\x00\x00\x00\x00\x11\xd0\x87\xf5\xb1\xd8\xfcf\xf8\x02\x95\xc3\x18\xcb\xb3\x87\x95\xf4\x92\xd39\x14r2$\xc4\xfaRN2&lt;\xdd6\xb9\xc6|\x1f%H\xa3\xf1F\xef\x97]\x96\xe8\xdc\xd0\xcfS\xb8h\x12\x86\x9b \xfe\x99\xc5\xb9\x1c\x1fe\x80\xf2\xb3\x9d\x82\xf8\xe5\x00\x16P\xb8\xd8\xe4\xb26k\xd9\xce\x8c%\x0f\xa7\x04\xbe\xa7\x0c\x13\xffgs\xd8\xa8\xf89\x8aT\x9e\x8b\x9b"\x03\xa2\xef\xf8(Y`\xa4LD\x98\x83\xeb\xbba\x98\xb9\xe7\xbe\xb5y5\xaf2\xe5\xd9g\xc0`X\x9bM\xe7a\x9ev\x9cu&amp;\x8c#'</t>
+  </si>
+  <si>
+    <t>2019-01-03-13:28:39</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00(\xf1\x97@\x00\xeb\x06\x1b7"\xc6\x9e\x8b\xc0\xa8\x01\x07\x01\xbb\xf9T\xea\xa8\x9cR\x98\x12y\tP\x10\x03\x03\x96\xa9\x00\x00'</t>
+  </si>
+  <si>
+    <t>@\x00\xeb\x06\x1b7"\xc6\x9e\x8b\xc0\xa8\x01\x07\x01\xbb\xf9T\xea\xa8\x9cR\x98\x12y\tP\x10\x03\x03\x96\xa9\x00\x00'</t>
+  </si>
+  <si>
+    <t>13.89.217.116</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00](Y@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\rY\xd9t\xf9\xa7\x01\xbb\xf3\xa76\xcb\x1c6\x1baP\x18\x00\xfe\xa8\xcc\x00\x00\x17\x03\x01\x000l3&gt;\xe4C2\xfc&lt;\x9d\xb1\xab\x19X\xc9`J\xc7Z\x99\x0fR\xa5\x00\rL\x9a\xb8\xb3\xeb\xa0@gS\xd4k\xd8lL,\x0e\xc5\xc8\x84JC\x08\xd8\xb5'</t>
+  </si>
+  <si>
+    <t>x80\x06\x00\x00\xc0\xa8\x01\x07\rY\xd9t\xf9\xa7\x01\xbb\xf3\xa76\xcb\x1c6\x1baP\x18\x00\xfe\xa8\xcc\x00\x00\x17\x03\x01\x000l3&gt;\xe4C2\xfc&lt;\x9d\xb1\xab\x19X\xc9`J\xc7Z\x99\x0fR\xa5\x00\rL\x9a\xb8\xb3\xeb\xa0@gS\xd4k\xd8lL,\x0e\xc5\xc8\x84JC\x08\xd8\xb5'</t>
+  </si>
+  <si>
+    <t>b"E\x00\x01#\x1e\x12\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xe4\xd7{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x002\xf4?p"</t>
+  </si>
+  <si>
+    <t>\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xe4\xd7{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x002\xf4?p"</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00\xd2\x1b`@\x00o\x06GI\rY\xd9t\xc0\xa8\x01\x07\x01\xbb\xf9\xa7\x1c6\x1ba\xf3\xa77\x00P\x18\x1f\x96\xd6\xb6\x00\x00\x17\x03\x01\x00 te\xd4\x82Py\tM\xfed\xf9\xc6\xe4\xddW\xc9:\xc1-\xa7W\x1c\xaa\xfc\x98\xfd)\xe5\x06\xf7\x0b\xb1\x17\x03\x01\x00\x80\xd8\xc6\xb8d\xf4\x93\\\x0b\rR\xcaW9\xfc\x1e\xbe\xaaUss\xacl\xa4\xc4F\xaf\x88\x01\x94\xf8\x95N\x05\x97\tm\x88\x14\xd7\xf7\xf0j_\xe3\xbf\x06\xb7\x87\x8f\x12\xec\xd7\xf2\xf8h\xa3\xca\xb9\xd9\x05n\xf1\xc4vr\x8a1\xa3e\xbb\xfa}\xe6\x01\x95\xb3\xffu\xeb\xfa\x13\\\x99b\x9b\xcf+.\x0c\x17\xc0u\xd7\xe2{OVro\xfaE\x19\xf7\xc17\xf0\r\xb5EU\x80\xadz\xe3y\xee\n\x94O?\x96]\xf7a\x1f{\x80m'</t>
+  </si>
+  <si>
+    <t>@\x00o\x06GI\rY\xd9t\xc0\xa8\x01\x07\x01\xbb\xf9\xa7\x1c6\x1ba\xf3\xa77\x00P\x18\x1f\x96\xd6\xb6\x00\x00\x17\x03\x01\x00 te\xd4\x82Py\tM\xfed\xf9\xc6\xe4\xddW\xc9:\xc1-\xa7W\x1c\xaa\xfc\x98\xfd)\xe5\x06\xf7\x0b\xb1\x17\x03\x01\x00\x80\xd8\xc6\xb8d\xf4\x93\\\x0b\rR\xcaW9\xfc\x1e\xbe\xaaUss\xacl\xa4\xc4F\xaf\x88\x01\x94\xf8\x95N\x05\x97\tm\x88\x14\xd7\xf7\xf0j_\xe3\xbf\x06\xb7\x87\x8f\x12\xec\xd7\xf2\xf8h\xa3\xca\xb9\xd9\x05n\xf1\xc4vr\x8a1\xa3e\xbb\xfa}\xe6\x01\x95\xb3\xffu\xeb\xfa\x13\\\x99b\x9b\xcf+.\x0c\x17\xc0u\xd7\xe2{OVro\xfaE\x19\xf7\xc17\xf0\r\xb5EU\x80\xadz\xe3y\xee\n\x94O?\x96]\xf7a\x1f{\x80m'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00((Z@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\rY\xd9t\xf9\xa7\x01\xbb\xf3\xa77\x00\x1c6\x1c\x0bP\x10\x00\xfe\xa8\x97\x00\x00'</t>
+  </si>
+  <si>
+    <t>x80\x06\x00\x00\xc0\xa8\x01\x07\rY\xd9t\xf9\xa7\x01\xbb\xf3\xa77\x00\x1c6\x1c\x0bP\x10\x00\xfe\xa8\x97\x00\x00'</t>
+  </si>
+  <si>
+    <t>b"E\x00\x01#\x1e\x13\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xe5\xd7{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00n\xa4\x83I"</t>
+  </si>
+  <si>
+    <t>\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xe5\xd7{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00n\xa4\x83I"</t>
+  </si>
+  <si>
+    <t>2019-01-03-13:28:40</t>
+  </si>
+  <si>
+    <t>74.125.195.189</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00d\xeb_\x00\x00l\x06\x93JJ}\xc3\xbd\xc0\xa8\x01\x07\x01\xbb\xee[&gt;\xd4\x10\xf7\x93\x97\xa1\x1eP\x18\x00\xfd\xb6\x95\x00\x00\x17\x03\x03\x007\x00\x00\x00\x00\x00\x00\x00\x07j\xb4\x84\x10j\xfc\xe1\xe3\x00\x85\x0f\xe1i*5\xb8\x9f\xb9ex\xed\xc1&lt;?\x1f\xc7C\x1fD\xd6\x97\x080n\x0f]VS\xbc\xeb8\xb7\xab\xd8\x9a\xdaM'</t>
+  </si>
+  <si>
+    <t>0\x00l\x06\x93JJ}\xc3\xbd\xc0\xa8\x01\x07\x01\xbb\xee[&gt;\xd4\x10\xf7\x93\x97\xa1\x1eP\x18\x00\xfd\xb6\x95\x00\x00\x17\x03\x03\x007\x00\x00\x00\x00\x00\x00\x00\x07j\xb4\x84\x10j\xfc\xe1\xe3\x00\x85\x0f\xe1i*5\xb8\x9f\xb9ex\xed\xc1&lt;?\x1f\xc7C\x1fD\xd6\x97\x080n\x0f]VS\xbc\xeb8\xb7\xab\xd8\x9a\xdaM'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00(\x1a\xfe@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07J}\xc3\xbd\xee[\x01\xbb\x93\x97\xa1\x1e&gt;\xd4\x113P\x10\x00\xfd\xd0\x04\x00\x00'</t>
+  </si>
+  <si>
+    <t>@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07J}\xc3\xbd\xee[\x01\xbb\x93\x97\xa1\x1e&gt;\xd4\x113P\x10\x00\xfd\xd0\x04\x00\x00'</t>
+  </si>
+  <si>
+    <t>b"E\x00\x01#\x1e\x14\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xe6\xd7{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x8aTG\x03"</t>
+  </si>
+  <si>
+    <t>\x00\x00\x80\x11\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\xff\xd6\x83\xd6\x83\x01\x0f\x85w\x00SnowBuild\x00\xcaH\x02\x00\x00 \xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x003'\x00\x00\x00\x00\x00\x00@gP\xcaH\x02\x00\x000\x14\xc6\xc9H\x02\x00\x00 \xc07\xcbH\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00|j\x18P\x00\x00\x00\x00X\xa4\xabw\x00\x00\x00\x00Y\xb9\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xd0!9\xcbH\x02\x00\x00\xa4\xb5\xbf#\xe6\x00\x00\x00\xc0\xb5\xbf#\xe6\x00\x00\x00\xa8\xe6\xd7{b9b1b628-cde7-4247-8461-dbc961671772}\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xa0\xb5\xbf#\xe6\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x8aTG\x03"</t>
+  </si>
+  <si>
+    <t>2019-01-03-13:28:41</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00\x88Y\x1e@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\x06\xcc*\x1fI\x13\x15\xe9\xc3z\xc36(P\x18\x00\xfb\x83\xd8\x00\x00\x17\x03\x03\x00[\x00\x00\x00\x00\x00\x00"\xdf\xb3\xaa\x87d\xa0\xc8\x07f\xde\xd1\x8a\xdc\xf8u,\xdf\xd5`}\x02\x92Q\xc3\xf2f.\x9c\xa8ZU\xa3\x15dZ\xed\xe5\t`&amp;\xd0\xd5}\xcf\xa0\xd29L\x1d\x12\xc4\x96\xe0\xdfT\xc0\x95\xa6\xc1\xc7p\r\x1c\xc5\x82Q\x0e\x94\x17\xf8/j\xaf\xf7P\xabe\xb3\x08\x11t=\xaa\xb8'</t>
+  </si>
+  <si>
+    <t>@\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\x06\xcc*\x1fI\x13\x15\xe9\xc3z\xc36(P\x18\x00\xfb\x83\xd8\x00\x00\x17\x03\x03\x00[\x00\x00\x00\x00\x00\x00"\xdf\xb3\xaa\x87d\xa0\xc8\x07f\xde\xd1\x8a\xdc\xf8u,\xdf\xd5`}\x02\x92Q\xc3\xf2f.\x9c\xa8ZU\xa3\x15dZ\xed\xe5\t`&amp;\xd0\xd5}\xcf\xa0\xd29L\x1d\x12\xc4\x96\xe0\xdfT\xc0\x95\xa6\xc1\xc7p\r\x1c\xc5\x82Q\x0e\x94\x17\xf8/j\xaf\xf7P\xabe\xb3\x08\x11t=\xaa\xb8'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00(\xe2\x19@\x00@\x06\xd5X\xc0\xa8\x01\x06\xc0\xa8\x01\x07\x1fI\xcc*z\xc36(\x13\x15\xeaUP\x10\x02\x94\x90\x18\x00\x00'</t>
+  </si>
+  <si>
+    <t>@\x00@\x06\xd5X\xc0\xa8\x01\x06\xc0\xa8\x01\x07\x1fI\xcc*z\xc36(\x13\x15\xeaUP\x10\x02\x94\x90\x18\x00\x00'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00\x9d\xe2\x1a@\x00@\x06\xd4\xe2\xc0\xa8\x01\x06\xc0\xa8\x01\x07\x1fI\xcc*z\xc36(\x13\x15\xeaUP\x18\x02\x94\x0c\xa6\x00\x00\x17\x03\x03\x00p\x00\x00\x00\x00\x00\x00"\xd4\xa3\xe4&amp;\x8c\xfa\xa0\xde\xd5\xd29\x8a\x1c\xf1\xaf\xec\xa1\x17\x0b+p\x04*\xaeL\x11,\xbc\x0f\xdb(A\xce\xb8\xb9\x99\xffk&gt;\xf9\x0f\x00\xa0\xfc\x19Z\xb1\xf7\xbf\xe1\xd1\xf3\x9a\x03\x1c\x18T\x06\x16\xa6e\xc4\xd8\x8a&gt;\xa5s\xde\xcf\xd9\x1f\x84t8\xb6\x13A\x15\x0eoJ\x98\xc9m\x1c\x81\x13_o\x0b\xc4\x9a\xa7\x93\xd1\xdb\xd5\xb4E^m?s\x1e\x03'</t>
+  </si>
+  <si>
+    <t>x1a@\x00@\x06\xd4\xe2\xc0\xa8\x01\x06\xc0\xa8\x01\x07\x1fI\xcc*z\xc36(\x13\x15\xeaUP\x18\x02\x94\x0c\xa6\x00\x00\x17\x03\x03\x00p\x00\x00\x00\x00\x00\x00"\xd4\xa3\xe4&amp;\x8c\xfa\xa0\xde\xd5\xd29\x8a\x1c\xf1\xaf\xec\xa1\x17\x0b+p\x04*\xaeL\x11,\xbc\x0f\xdb(A\xce\xb8\xb9\x99\xffk&gt;\xf9\x0f\x00\xa0\xfc\x19Z\xb1\xf7\xbf\xe1\xd1\xf3\x9a\x03\x1c\x18T\x06\x16\xa6e\xc4\xd8\x8a&gt;\xa5s\xde\xcf\xd9\x1f\x84t8\xb6\x13A\x15\x0eoJ\x98\xc9m\x1c\x81\x13_o\x0b\xc4\x9a\xa7\x93\xd1\xdb\xd5\xb4E^m?s\x1e\x03'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00(Y @\x00\x80\x06\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\x06\xcc*\x1fI\x13\x15\xeaUz\xc36\x9dP\x10\x00\xfb\x83x\x00\x00'</t>
+  </si>
+  <si>
+    <t>x80\x06\x00\x00\xc0\xa8\x01\x07\xc0\xa8\x01\x06\xcc*\x1fI\x13\x15\xeaUz\xc36\x9dP\x10\x00\xfb\x83x\x00\x00'</t>
+  </si>
+  <si>
+    <t>52.71.143.82</t>
+  </si>
+  <si>
+    <t>b'E\x00\x01\x99Z\x93@\x00\x80\x06\x00\x00\xc0\xa8\x01\x074G\x8fR\xf3\x98\x00PKR\xdaw\t`\x80\x06P\x18\x00\xfd\x86\xd4\x00\x00GET /pulse?authon&amp;user=46F55B2B3C22FBF959A56104A4AF3FF3&amp;url_heartbeat=1,0,87,87,0&amp;db_conn=1,0,0,0,0 HTTP/1.1\r\nUser-Agent: Mozilla/5.0 EA Download Manager Origin/10.5.32.18460\r\nX-Origin-UID: 8119062577747410252\r\nX-Origin-Platform: PCWIN\r\nlocaleInfo: en_US\r\nAccept-Language: en-US\r\nConnection: Keep-Alive\r\nAccept-Encoding: gzip, deflate\r\nHost: heartbeat.dm.origin.com\r\n\r\n'</t>
+  </si>
+  <si>
+    <t>@\x00\x80\x06\x00\x00\xc0\xa8\x01\x074G\x8fR\xf3\x98\x00PKR\xdaw\t`\x80\x06P\x18\x00\xfd\x86\xd4\x00\x00GET /pulse?authon&amp;user=46F55B2B3C22FBF959A56104A4AF3FF3&amp;url_heartbeat=1,0,87,87,0&amp;db_conn=1,0,0,0,0 HTTP/1.1\r\nUser-Agent: Mozilla/5.0 EA Download Manager Origin/10.5.32.18460\r\nX-Origin-UID: 8119062577747410252\r\nX-Origin-Platform: PCWIN\r\nlocaleInfo: en_US\r\nAccept-Language: en-US\r\nConnection: Keep-Alive\r\nAccept-Encoding: gzip, deflate\r\nHost: heartbeat.dm.origin.com\r\n\r\n'</t>
+  </si>
+  <si>
+    <t>b'E\x00\x00\xb4g\x89@\x00\xeb\x06\xa2q4G\x8fR\xc0\xa8\x01\x07\x00P\xf3\x98\t`\x80\x06KR\xdb\xe8P\x18\x02OD&lt;\x00\x00HTTP/1.1 200 OK\r\nContent-Type: text/plain\r\nDate: Thu, 03 Jan 2019 21:28:40 GMT\r\nServer: nginx\r\nContent-Length: 0\r\nConnection: keep-alive\r\n\r\n'</t>
+  </si>
+  <si>
+    <t>@\x00\xeb\x06\xa2q4G\x8fR\xc0\xa8\x01\x07\x00P\xf3\x98\t`\x80\x06KR\xdb\xe8P\x18\x02OD&lt;\x00\x00HTTP/1.1 200 OK\r\nContent-Type: text/plain\r\nDate: Thu, 03 Jan 2019 21:28:40 GMT\r\nServer: nginx\r\nContent-Length: 0\r\nConnection: keep-alive\r\n\r\n'</t>
   </si>
 </sst>
 </file>
@@ -587,7 +953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,7 +1008,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2">
-        <v>14462</v>
+        <v>30313</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -675,7 +1041,7 @@
         <v>20</v>
       </c>
       <c r="L2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
@@ -689,46 +1055,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3">
-        <v>14903</v>
+        <v>61845</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>235</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>6935</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>74</v>
+      </c>
+      <c r="M3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="N3" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>128</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>20</v>
-      </c>
-      <c r="L3">
-        <v>291</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>
@@ -736,13 +1102,13 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
-        <v>3390</v>
+        <v>18499</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -769,74 +1135,74 @@
         <v>20</v>
       </c>
       <c r="L4">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
-        <v>4759</v>
+        <v>44521</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5">
-        <v>11206</v>
+        <v>8130</v>
       </c>
       <c r="K5">
         <v>20</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
-        <v>4760</v>
+        <v>30314</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -851,86 +1217,86 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6">
-        <v>11141</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>20</v>
       </c>
       <c r="L6">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
-        <v>55283</v>
+        <v>7689</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>128</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>291</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>64</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>57097</v>
-      </c>
-      <c r="K7">
-        <v>20</v>
-      </c>
-      <c r="L7">
-        <v>157</v>
-      </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" t="s">
-        <v>38</v>
-      </c>
       <c r="O7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>3391</v>
+        <v>26817</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -957,27 +1323,27 @@
         <v>20</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="M8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" t="s">
         <v>39</v>
       </c>
-      <c r="N8" t="s">
-        <v>40</v>
-      </c>
       <c r="O8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
-        <v>30018</v>
+        <v>42896</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -992,48 +1358,48 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="I9">
         <v>4</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>36198</v>
       </c>
       <c r="K9">
         <v>20</v>
       </c>
       <c r="L9">
+        <v>104</v>
+      </c>
+      <c r="M9" t="s">
         <v>40</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>41</v>
       </c>
-      <c r="N9" t="s">
-        <v>42</v>
-      </c>
       <c r="O9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
-        <v>14906</v>
+        <v>26818</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1051,74 +1417,74 @@
         <v>20</v>
       </c>
       <c r="L10">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="M10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" t="s">
         <v>43</v>
       </c>
-      <c r="N10" t="s">
-        <v>44</v>
-      </c>
       <c r="O10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11">
-        <v>41320</v>
+        <v>4903</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>128</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>235</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <v>27270</v>
-      </c>
-      <c r="K11">
-        <v>20</v>
-      </c>
-      <c r="L11">
-        <v>264</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>46</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>47</v>
-      </c>
-      <c r="O11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12">
-        <v>22793</v>
+        <v>26512</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -1127,54 +1493,54 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="I12">
         <v>4</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5963</v>
       </c>
       <c r="K12">
         <v>20</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="M12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" t="s">
         <v>49</v>
       </c>
-      <c r="N12" t="s">
-        <v>50</v>
-      </c>
       <c r="O12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13">
-        <v>14907</v>
+        <v>7690</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1195,71 +1561,71 @@
         <v>291</v>
       </c>
       <c r="M13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" t="s">
         <v>51</v>
       </c>
-      <c r="N13" t="s">
-        <v>52</v>
-      </c>
       <c r="O13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14">
-        <v>2770</v>
+        <v>7691</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>128</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>291</v>
+      </c>
+      <c r="M14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" t="s">
         <v>53</v>
       </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>128</v>
-      </c>
-      <c r="I14">
-        <v>4</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>20</v>
-      </c>
-      <c r="L14">
-        <v>101</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>54</v>
-      </c>
-      <c r="N14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15">
-        <v>30290</v>
+        <v>13176</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -1274,19 +1640,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="I15">
         <v>4</v>
       </c>
       <c r="J15">
-        <v>25753</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>20</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s">
         <v>56</v>
@@ -1295,18 +1661,18 @@
         <v>57</v>
       </c>
       <c r="O15" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16">
-        <v>22794</v>
+        <v>57947</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1321,19 +1687,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="I16">
         <v>4</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>59993</v>
       </c>
       <c r="K16">
         <v>20</v>
       </c>
       <c r="L16">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="M16" t="s">
         <v>58</v>
@@ -1342,18 +1708,18 @@
         <v>59</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17">
-        <v>30291</v>
+        <v>13177</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -1368,48 +1734,48 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="I17">
         <v>4</v>
       </c>
       <c r="J17">
-        <v>25712</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>20</v>
       </c>
       <c r="L17">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" t="s">
         <v>61</v>
       </c>
-      <c r="N17" t="s">
-        <v>62</v>
-      </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18">
-        <v>2771</v>
+        <v>7692</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1427,27 +1793,27 @@
         <v>20</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="M18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" t="s">
         <v>63</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>64</v>
-      </c>
-      <c r="O18" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19">
-        <v>25274</v>
+        <v>2817</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -1462,36 +1828,36 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="I19">
         <v>4</v>
       </c>
       <c r="J19">
-        <v>43316</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>20</v>
       </c>
       <c r="L19">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c r="M19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20">
-        <v>59793</v>
+        <v>65303</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
@@ -1509,39 +1875,39 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="I20">
         <v>4</v>
       </c>
       <c r="J20">
-        <v>8797</v>
+        <v>11771</v>
       </c>
       <c r="K20">
         <v>20</v>
       </c>
       <c r="L20">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="M20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21">
-        <v>41321</v>
+        <v>30043</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -1556,39 +1922,39 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="I21">
         <v>4</v>
       </c>
       <c r="J21">
-        <v>27493</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22">
-        <v>22796</v>
+        <v>17114</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -1597,54 +1963,54 @@
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I22">
         <v>4</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>35741</v>
       </c>
       <c r="K22">
         <v>20</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="M22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23">
-        <v>14908</v>
+        <v>27331</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1662,16 +2028,2366 @@
         <v>20</v>
       </c>
       <c r="L23">
+        <v>41</v>
+      </c>
+      <c r="M23" t="s">
+        <v>77</v>
+      </c>
+      <c r="N23" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24">
+        <v>40070</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>108</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>37239</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>52</v>
+      </c>
+      <c r="M24" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" t="s">
+        <v>80</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25">
+        <v>3586</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>128</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>41</v>
+      </c>
+      <c r="M25" t="s">
+        <v>82</v>
+      </c>
+      <c r="N25" t="s">
+        <v>83</v>
+      </c>
+      <c r="O25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26">
+        <v>32864</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>53</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>14281</v>
+      </c>
+      <c r="K26">
+        <v>20</v>
+      </c>
+      <c r="L26">
+        <v>52</v>
+      </c>
+      <c r="M26" t="s">
+        <v>84</v>
+      </c>
+      <c r="N26" t="s">
+        <v>85</v>
+      </c>
+      <c r="O26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27">
+        <v>22806</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>128</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>20</v>
+      </c>
+      <c r="L27">
+        <v>157</v>
+      </c>
+      <c r="M27" t="s">
+        <v>87</v>
+      </c>
+      <c r="N27" t="s">
+        <v>88</v>
+      </c>
+      <c r="O27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28">
+        <v>7694</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>128</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>20</v>
+      </c>
+      <c r="L28">
         <v>291</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M28" t="s">
+        <v>89</v>
+      </c>
+      <c r="N28" t="s">
+        <v>90</v>
+      </c>
+      <c r="O28" t="s">
         <v>73</v>
       </c>
-      <c r="N23" t="s">
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29">
+        <v>57880</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>64</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>54500</v>
+      </c>
+      <c r="K29">
+        <v>20</v>
+      </c>
+      <c r="L29">
+        <v>157</v>
+      </c>
+      <c r="M29" t="s">
+        <v>91</v>
+      </c>
+      <c r="N29" t="s">
+        <v>92</v>
+      </c>
+      <c r="O29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30">
+        <v>22808</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>128</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>20</v>
+      </c>
+      <c r="L30">
+        <v>40</v>
+      </c>
+      <c r="M30" t="s">
+        <v>93</v>
+      </c>
+      <c r="N30" t="s">
+        <v>94</v>
+      </c>
+      <c r="O30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31">
+        <v>28227</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>128</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>20</v>
+      </c>
+      <c r="L31">
+        <v>41</v>
+      </c>
+      <c r="M31" t="s">
+        <v>96</v>
+      </c>
+      <c r="N31" t="s">
+        <v>97</v>
+      </c>
+      <c r="O31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32">
+        <v>20555</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>128</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>20</v>
+      </c>
+      <c r="L32">
+        <v>41</v>
+      </c>
+      <c r="M32" t="s">
+        <v>99</v>
+      </c>
+      <c r="N32" t="s">
+        <v>100</v>
+      </c>
+      <c r="O32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33">
+        <v>44245</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>122</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>8604</v>
+      </c>
+      <c r="K33">
+        <v>20</v>
+      </c>
+      <c r="L33">
+        <v>52</v>
+      </c>
+      <c r="M33" t="s">
+        <v>101</v>
+      </c>
+      <c r="N33" t="s">
+        <v>102</v>
+      </c>
+      <c r="O33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34">
+        <v>51489</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>122</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>1356</v>
+      </c>
+      <c r="K34">
+        <v>20</v>
+      </c>
+      <c r="L34">
+        <v>52</v>
+      </c>
+      <c r="M34" t="s">
+        <v>103</v>
+      </c>
+      <c r="N34" t="s">
+        <v>104</v>
+      </c>
+      <c r="O34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35">
+        <v>15195</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>128</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <v>41</v>
+      </c>
+      <c r="M35" t="s">
+        <v>106</v>
+      </c>
+      <c r="N35" t="s">
+        <v>107</v>
+      </c>
+      <c r="O35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36">
+        <v>25816</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>128</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>20</v>
+      </c>
+      <c r="L36">
+        <v>41</v>
+      </c>
+      <c r="M36" t="s">
+        <v>109</v>
+      </c>
+      <c r="N36" t="s">
+        <v>110</v>
+      </c>
+      <c r="O36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37">
+        <v>33792</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>59</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>52073</v>
+      </c>
+      <c r="K37">
+        <v>20</v>
+      </c>
+      <c r="L37">
+        <v>52</v>
+      </c>
+      <c r="M37" t="s">
+        <v>111</v>
+      </c>
+      <c r="N37" t="s">
+        <v>112</v>
+      </c>
+      <c r="O37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38">
+        <v>56791</v>
+      </c>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>59</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>46006</v>
+      </c>
+      <c r="K38">
+        <v>20</v>
+      </c>
+      <c r="L38">
+        <v>52</v>
+      </c>
+      <c r="M38" t="s">
+        <v>113</v>
+      </c>
+      <c r="N38" t="s">
+        <v>114</v>
+      </c>
+      <c r="O38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39">
+        <v>13468</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>128</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>20</v>
+      </c>
+      <c r="L39">
+        <v>41</v>
+      </c>
+      <c r="M39" t="s">
+        <v>116</v>
+      </c>
+      <c r="N39" t="s">
+        <v>117</v>
+      </c>
+      <c r="O39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40">
+        <v>33555</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>53</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>10518</v>
+      </c>
+      <c r="K40">
+        <v>20</v>
+      </c>
+      <c r="L40">
+        <v>52</v>
+      </c>
+      <c r="M40" t="s">
+        <v>118</v>
+      </c>
+      <c r="N40" t="s">
+        <v>119</v>
+      </c>
+      <c r="O40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41">
+        <v>30315</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>128</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>20</v>
+      </c>
+      <c r="L41">
+        <v>77</v>
+      </c>
+      <c r="M41" t="s">
+        <v>121</v>
+      </c>
+      <c r="N41" t="s">
+        <v>122</v>
+      </c>
+      <c r="O41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42">
+        <v>27319</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>235</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>41461</v>
+      </c>
+      <c r="K42">
+        <v>20</v>
+      </c>
+      <c r="L42">
         <v>74</v>
       </c>
-      <c r="O23" t="s">
-        <v>60</v>
+      <c r="M42" t="s">
+        <v>123</v>
+      </c>
+      <c r="N42" t="s">
+        <v>124</v>
+      </c>
+      <c r="O42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43">
+        <v>31323</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>128</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>20</v>
+      </c>
+      <c r="L43">
+        <v>112</v>
+      </c>
+      <c r="M43" t="s">
+        <v>126</v>
+      </c>
+      <c r="N43" t="s">
+        <v>127</v>
+      </c>
+      <c r="O43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44">
+        <v>29887</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>128</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>20</v>
+      </c>
+      <c r="L44">
+        <v>109</v>
+      </c>
+      <c r="M44" t="s">
+        <v>129</v>
+      </c>
+      <c r="N44" t="s">
+        <v>130</v>
+      </c>
+      <c r="O44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45">
+        <v>3318</v>
+      </c>
+      <c r="B45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>59</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>52408</v>
+      </c>
+      <c r="K45">
+        <v>20</v>
+      </c>
+      <c r="L45">
+        <v>101</v>
+      </c>
+      <c r="M45" t="s">
+        <v>132</v>
+      </c>
+      <c r="N45" t="s">
+        <v>133</v>
+      </c>
+      <c r="O45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46">
+        <v>30505</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>52</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>55684</v>
+      </c>
+      <c r="K46">
+        <v>20</v>
+      </c>
+      <c r="L46">
+        <v>40</v>
+      </c>
+      <c r="M46" t="s">
+        <v>134</v>
+      </c>
+      <c r="N46" t="s">
+        <v>135</v>
+      </c>
+      <c r="O46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47">
+        <v>14174</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>128</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>20</v>
+      </c>
+      <c r="L47">
+        <v>40</v>
+      </c>
+      <c r="M47" t="s">
+        <v>136</v>
+      </c>
+      <c r="N47" t="s">
+        <v>137</v>
+      </c>
+      <c r="O47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48">
+        <v>7696</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>128</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>20</v>
+      </c>
+      <c r="L48">
+        <v>291</v>
+      </c>
+      <c r="M48" t="s">
+        <v>138</v>
+      </c>
+      <c r="N48" t="s">
+        <v>139</v>
+      </c>
+      <c r="O48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49">
+        <v>26819</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>128</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>20</v>
+      </c>
+      <c r="L49">
+        <v>106</v>
+      </c>
+      <c r="M49" t="s">
+        <v>140</v>
+      </c>
+      <c r="N49" t="s">
+        <v>141</v>
+      </c>
+      <c r="O49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50">
+        <v>42897</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>40</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>36261</v>
+      </c>
+      <c r="K50">
+        <v>20</v>
+      </c>
+      <c r="L50">
+        <v>40</v>
+      </c>
+      <c r="M50" t="s">
+        <v>142</v>
+      </c>
+      <c r="N50" t="s">
+        <v>143</v>
+      </c>
+      <c r="O50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51">
+        <v>3588</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>128</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>20</v>
+      </c>
+      <c r="L51">
+        <v>41</v>
+      </c>
+      <c r="M51" t="s">
+        <v>144</v>
+      </c>
+      <c r="N51" t="s">
+        <v>145</v>
+      </c>
+      <c r="O51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52">
+        <v>30160</v>
+      </c>
+      <c r="B52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>53</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>16985</v>
+      </c>
+      <c r="K52">
+        <v>20</v>
+      </c>
+      <c r="L52">
+        <v>52</v>
+      </c>
+      <c r="M52" t="s">
+        <v>146</v>
+      </c>
+      <c r="N52" t="s">
+        <v>147</v>
+      </c>
+      <c r="O52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53">
+        <v>30317</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>128</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>20</v>
+      </c>
+      <c r="L53">
+        <v>196</v>
+      </c>
+      <c r="M53" t="s">
+        <v>148</v>
+      </c>
+      <c r="N53" t="s">
+        <v>149</v>
+      </c>
+      <c r="O53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54">
+        <v>61846</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>235</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <v>6744</v>
+      </c>
+      <c r="K54">
+        <v>20</v>
+      </c>
+      <c r="L54">
+        <v>264</v>
+      </c>
+      <c r="M54" t="s">
+        <v>151</v>
+      </c>
+      <c r="N54" t="s">
+        <v>152</v>
+      </c>
+      <c r="O54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55">
+        <v>27321</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>235</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <v>41493</v>
+      </c>
+      <c r="K55">
+        <v>20</v>
+      </c>
+      <c r="L55">
+        <v>40</v>
+      </c>
+      <c r="M55" t="s">
+        <v>153</v>
+      </c>
+      <c r="N55" t="s">
+        <v>154</v>
+      </c>
+      <c r="O55" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56">
+        <v>30318</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>128</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>20</v>
+      </c>
+      <c r="L56">
+        <v>40</v>
+      </c>
+      <c r="M56" t="s">
+        <v>155</v>
+      </c>
+      <c r="N56" t="s">
+        <v>156</v>
+      </c>
+      <c r="O56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57">
+        <v>7697</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>128</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>20</v>
+      </c>
+      <c r="L57">
+        <v>291</v>
+      </c>
+      <c r="M57" t="s">
+        <v>157</v>
+      </c>
+      <c r="N57" t="s">
+        <v>158</v>
+      </c>
+      <c r="O57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58">
+        <v>30319</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>128</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>20</v>
+      </c>
+      <c r="L58">
+        <v>196</v>
+      </c>
+      <c r="M58" t="s">
+        <v>159</v>
+      </c>
+      <c r="N58" t="s">
+        <v>160</v>
+      </c>
+      <c r="O58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59">
+        <v>61847</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>235</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59">
+        <v>6967</v>
+      </c>
+      <c r="K59">
+        <v>20</v>
+      </c>
+      <c r="L59">
+        <v>40</v>
+      </c>
+      <c r="M59" t="s">
+        <v>162</v>
+      </c>
+      <c r="N59" t="s">
+        <v>163</v>
+      </c>
+      <c r="O59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60">
+        <v>10329</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>164</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>128</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>20</v>
+      </c>
+      <c r="L60">
+        <v>93</v>
+      </c>
+      <c r="M60" t="s">
+        <v>165</v>
+      </c>
+      <c r="N60" t="s">
+        <v>166</v>
+      </c>
+      <c r="O60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61">
+        <v>7698</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>128</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>20</v>
+      </c>
+      <c r="L61">
+        <v>291</v>
+      </c>
+      <c r="M61" t="s">
+        <v>167</v>
+      </c>
+      <c r="N61" t="s">
+        <v>168</v>
+      </c>
+      <c r="O61" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62">
+        <v>7008</v>
+      </c>
+      <c r="B62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>111</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62">
+        <v>18249</v>
+      </c>
+      <c r="K62">
+        <v>20</v>
+      </c>
+      <c r="L62">
+        <v>210</v>
+      </c>
+      <c r="M62" t="s">
+        <v>169</v>
+      </c>
+      <c r="N62" t="s">
+        <v>170</v>
+      </c>
+      <c r="O62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63">
+        <v>10330</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>128</v>
+      </c>
+      <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>20</v>
+      </c>
+      <c r="L63">
+        <v>40</v>
+      </c>
+      <c r="M63" t="s">
+        <v>171</v>
+      </c>
+      <c r="N63" t="s">
+        <v>172</v>
+      </c>
+      <c r="O63" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64">
+        <v>7699</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>128</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>20</v>
+      </c>
+      <c r="L64">
+        <v>291</v>
+      </c>
+      <c r="M64" t="s">
+        <v>173</v>
+      </c>
+      <c r="N64" t="s">
+        <v>174</v>
+      </c>
+      <c r="O64" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65">
+        <v>60255</v>
+      </c>
+      <c r="B65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>108</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
+      <c r="J65">
+        <v>37706</v>
+      </c>
+      <c r="K65">
+        <v>20</v>
+      </c>
+      <c r="L65">
+        <v>100</v>
+      </c>
+      <c r="M65" t="s">
+        <v>177</v>
+      </c>
+      <c r="N65" t="s">
+        <v>178</v>
+      </c>
+      <c r="O65" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66">
+        <v>6910</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>128</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>20</v>
+      </c>
+      <c r="L66">
+        <v>40</v>
+      </c>
+      <c r="M66" t="s">
+        <v>179</v>
+      </c>
+      <c r="N66" t="s">
+        <v>180</v>
+      </c>
+      <c r="O66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67">
+        <v>7700</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>128</v>
+      </c>
+      <c r="I67">
+        <v>4</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>20</v>
+      </c>
+      <c r="L67">
+        <v>291</v>
+      </c>
+      <c r="M67" t="s">
+        <v>181</v>
+      </c>
+      <c r="N67" t="s">
+        <v>182</v>
+      </c>
+      <c r="O67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68">
+        <v>22814</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>128</v>
+      </c>
+      <c r="I68">
+        <v>4</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>20</v>
+      </c>
+      <c r="L68">
+        <v>136</v>
+      </c>
+      <c r="M68" t="s">
+        <v>184</v>
+      </c>
+      <c r="N68" t="s">
+        <v>185</v>
+      </c>
+      <c r="O68" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69">
+        <v>57881</v>
+      </c>
+      <c r="B69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>64</v>
+      </c>
+      <c r="I69">
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <v>54616</v>
+      </c>
+      <c r="K69">
+        <v>20</v>
+      </c>
+      <c r="L69">
+        <v>40</v>
+      </c>
+      <c r="M69" t="s">
+        <v>186</v>
+      </c>
+      <c r="N69" t="s">
+        <v>187</v>
+      </c>
+      <c r="O69" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70">
+        <v>57882</v>
+      </c>
+      <c r="B70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>64</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <v>54498</v>
+      </c>
+      <c r="K70">
+        <v>20</v>
+      </c>
+      <c r="L70">
+        <v>157</v>
+      </c>
+      <c r="M70" t="s">
+        <v>188</v>
+      </c>
+      <c r="N70" t="s">
+        <v>189</v>
+      </c>
+      <c r="O70" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71">
+        <v>22816</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>128</v>
+      </c>
+      <c r="I71">
+        <v>4</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>20</v>
+      </c>
+      <c r="L71">
+        <v>40</v>
+      </c>
+      <c r="M71" t="s">
+        <v>190</v>
+      </c>
+      <c r="N71" t="s">
+        <v>191</v>
+      </c>
+      <c r="O71" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72">
+        <v>23187</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>192</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>128</v>
+      </c>
+      <c r="I72">
+        <v>4</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>20</v>
+      </c>
+      <c r="L72">
+        <v>409</v>
+      </c>
+      <c r="M72" t="s">
+        <v>193</v>
+      </c>
+      <c r="N72" t="s">
+        <v>194</v>
+      </c>
+      <c r="O72" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73">
+        <v>26505</v>
+      </c>
+      <c r="B73" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>235</v>
+      </c>
+      <c r="I73">
+        <v>4</v>
+      </c>
+      <c r="J73">
+        <v>41585</v>
+      </c>
+      <c r="K73">
+        <v>20</v>
+      </c>
+      <c r="L73">
+        <v>180</v>
+      </c>
+      <c r="M73" t="s">
+        <v>195</v>
+      </c>
+      <c r="N73" t="s">
+        <v>196</v>
+      </c>
+      <c r="O73" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
